--- a/eclipse-keys.xlsx
+++ b/eclipse-keys.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\git\org.pjp.winkey4mac.bindings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6066A13-5641-42DD-B7BB-822FB4149266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23752ED3-0E71-46D5-BC64-6C981E5EDA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="2250" windowWidth="23385" windowHeight="13695" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plugin" sheetId="8" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5927" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6023" uniqueCount="871">
   <si>
     <t>Run/Debug</t>
   </si>
@@ -2432,6 +2432,210 @@
   </si>
   <si>
     <t>org.pjp.winkey4mac.bindings.winKey4MacAcceleratorConfiguration</t>
+  </si>
+  <si>
+    <t>https://github.com/eclipse/eclemma/blob/master/org.eclipse.eclemma.ui/plugin.xml</t>
+  </si>
+  <si>
+    <t>Alt+Shift+Arrow_Right</t>
+  </si>
+  <si>
+    <t>Ctrl+Arrow_Right</t>
+  </si>
+  <si>
+    <t>Ctrl+Shift+Arrow_Right</t>
+  </si>
+  <si>
+    <t>Ctrl+Alt+Arrow_Right</t>
+  </si>
+  <si>
+    <t>Alt+Arrow_Right</t>
+  </si>
+  <si>
+    <t>Alt+Shift+Arrow_Left</t>
+  </si>
+  <si>
+    <t>Ctrl+Arrow_Left</t>
+  </si>
+  <si>
+    <t>Ctrl+Shift+Arrow_Left</t>
+  </si>
+  <si>
+    <t>Ctrl+Alt+Arrow_Left</t>
+  </si>
+  <si>
+    <t>Alt+Arrow_Left</t>
+  </si>
+  <si>
+    <t>Ctrl+Shift+Arrow_Up</t>
+  </si>
+  <si>
+    <t>Alt+Shift+Arrow_Up</t>
+  </si>
+  <si>
+    <t>Ctrl+Alt+Arrow_Up</t>
+  </si>
+  <si>
+    <t>Alt+Arrow_Up</t>
+  </si>
+  <si>
+    <t>Ctrl+Arrow_Up</t>
+  </si>
+  <si>
+    <t>Ctrl+Shift+Arrow_Down</t>
+  </si>
+  <si>
+    <t>Alt+Shift+Arrow_Down</t>
+  </si>
+  <si>
+    <t>Ctrl+Alt+Arrow_Down</t>
+  </si>
+  <si>
+    <t>Alt+Arrow_Down</t>
+  </si>
+  <si>
+    <t>Ctrl+Arrow_Down</t>
+  </si>
+  <si>
+    <t>https://eclipse.googlesource.com/platform/eclipse.platform.ui/+/5c234b1e41ed727415f695eb3b71439751d1c16a/bundles/org.eclipse.ui/plugin.xml</t>
+  </si>
+  <si>
+    <t>org.eclipse.ui.contexts.dialogAndWindow</t>
+  </si>
+  <si>
+    <t>Alt+Shift+D Q</t>
+  </si>
+  <si>
+    <t>Alt+Shift+X Q</t>
+  </si>
+  <si>
+    <t>Ctrl+Alt+X G</t>
+  </si>
+  <si>
+    <t>Alt+Shift+E P</t>
+  </si>
+  <si>
+    <t>Alt+Shift+E R</t>
+  </si>
+  <si>
+    <t>Alt+Shift+E T</t>
+  </si>
+  <si>
+    <t>Alt+Shift+E J</t>
+  </si>
+  <si>
+    <t>Alt+Shift+E L</t>
+  </si>
+  <si>
+    <t>Alt+Shift+E S</t>
+  </si>
+  <si>
+    <t>Alt+Shift+E N</t>
+  </si>
+  <si>
+    <t>Alt+Shift+E G</t>
+  </si>
+  <si>
+    <t>Alt+Shift+E E</t>
+  </si>
+  <si>
+    <t>Alt+Shift+D A</t>
+  </si>
+  <si>
+    <t>Alt+Shift+X A</t>
+  </si>
+  <si>
+    <t>Alt+Shift+D J</t>
+  </si>
+  <si>
+    <t>Alt+Shift+X J</t>
+  </si>
+  <si>
+    <t>Alt+Shift+D T</t>
+  </si>
+  <si>
+    <t>Alt+Shift+X T</t>
+  </si>
+  <si>
+    <t>Alt+Shift+X M</t>
+  </si>
+  <si>
+    <t>Alt+Shift+Q Z</t>
+  </si>
+  <si>
+    <t>Alt+Shift+Q V</t>
+  </si>
+  <si>
+    <t>Alt+Shift+Q L</t>
+  </si>
+  <si>
+    <t>Alt+Shift+Q S</t>
+  </si>
+  <si>
+    <t>Alt+Shift+Q J</t>
+  </si>
+  <si>
+    <t>Alt+Shift+Q O</t>
+  </si>
+  <si>
+    <t>Alt+Shift+Q H</t>
+  </si>
+  <si>
+    <t>Alt+Shift+Q T</t>
+  </si>
+  <si>
+    <t>Alt+Shift+Q B</t>
+  </si>
+  <si>
+    <t>Alt+Shift+Q Q</t>
+  </si>
+  <si>
+    <t>Alt+Shift+Q P</t>
+  </si>
+  <si>
+    <t>Alt+Shift+Q C</t>
+  </si>
+  <si>
+    <t>Alt+Shift+Q X</t>
+  </si>
+  <si>
+    <t>Alt+Shift+Q Y</t>
+  </si>
+  <si>
+    <t>Alt+Shift+Q D</t>
+  </si>
+  <si>
+    <t>Ctrl+2 T</t>
+  </si>
+  <si>
+    <t>Ctrl+2 F</t>
+  </si>
+  <si>
+    <t>Ctrl+2 L</t>
+  </si>
+  <si>
+    <t>Ctrl+2 M</t>
+  </si>
+  <si>
+    <t>Ctrl+2 R</t>
+  </si>
+  <si>
+    <t>Alt+Page_Down</t>
+  </si>
+  <si>
+    <t>Ctrl+Page_Down</t>
+  </si>
+  <si>
+    <t>Alt+Page_Up</t>
+  </si>
+  <si>
+    <t>Ctrl+Page_Up</t>
+  </si>
+  <si>
+    <t>org.eclipse.jdt.ui.breadcrumbEditorScope</t>
+  </si>
+  <si>
+    <t>org.eclipse.jdt.ui.propertiesEditorScope</t>
   </si>
 </sst>
 </file>
@@ -2444,7 +2648,7 @@
     <numFmt numFmtId="166" formatCode="\&quot;\&quot;\&quot;\&quot;@\&quot;"/>
     <numFmt numFmtId="167" formatCode="\&quot;\&quot;\&quot;\&quot;\&quot;@\&quot;"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2575,6 +2779,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2877,7 +3089,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2920,15 +3132,17 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -2962,6 +3176,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -3282,10 +3497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2BFA3DE-7B26-497E-A085-D6613657BB9E}">
-  <dimension ref="A1:D273"/>
+  <dimension ref="A1:D275"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView topLeftCell="A234" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3497,7 +3712,7 @@
         <v>171</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>676</v>
+        <v>781</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>172</v>
@@ -3508,7 +3723,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>251</v>
+        <v>860</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>676</v>
@@ -3522,7 +3737,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>548</v>
+        <v>861</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>676</v>
@@ -3536,7 +3751,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>204</v>
+        <v>862</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>676</v>
@@ -3550,7 +3765,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>460</v>
+        <v>863</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>676</v>
@@ -3564,7 +3779,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>506</v>
+        <v>864</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>676</v>
@@ -3648,7 +3863,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>289</v>
+        <v>819</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>676</v>
@@ -3662,7 +3877,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>601</v>
+        <v>814</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>676</v>
@@ -3732,7 +3947,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>139</v>
+        <v>815</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>676</v>
@@ -3746,7 +3961,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>142</v>
+        <v>820</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>676</v>
@@ -3760,7 +3975,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>475</v>
+        <v>804</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>676</v>
@@ -3774,7 +3989,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>420</v>
+        <v>809</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>676</v>
@@ -3889,7 +4104,7 @@
         <v>110</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>676</v>
+        <v>870</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>111</v>
@@ -3903,7 +4118,7 @@
         <v>536</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>676</v>
+        <v>870</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>111</v>
@@ -3917,7 +4132,7 @@
         <v>354</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>676</v>
+        <v>870</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>111</v>
@@ -3970,7 +4185,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>409</v>
+        <v>821</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>798</v>
@@ -3984,7 +4199,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>86</v>
+        <v>816</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>798</v>
@@ -4208,7 +4423,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>193</v>
+        <v>805</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>798</v>
@@ -4222,7 +4437,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>7</v>
+        <v>810</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>798</v>
@@ -4278,7 +4493,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>514</v>
+        <v>822</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>798</v>
@@ -4292,7 +4507,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>136</v>
+        <v>817</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>798</v>
@@ -4306,7 +4521,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>571</v>
+        <v>823</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>798</v>
@@ -4320,7 +4535,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>208</v>
+        <v>818</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>798</v>
@@ -4362,7 +4577,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>83</v>
+        <v>806</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>798</v>
@@ -4376,7 +4591,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>364</v>
+        <v>811</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>798</v>
@@ -4558,13 +4773,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>455</v>
+        <v>171</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>676</v>
+        <v>798</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>456</v>
+        <v>563</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>802</v>
@@ -4572,13 +4787,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>356</v>
+        <v>444</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>358</v>
+        <v>445</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>802</v>
@@ -4586,10 +4801,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>285</v>
+        <v>455</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>869</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>378</v>
+        <v>456</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>802</v>
@@ -4597,10 +4815,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>375</v>
+        <v>356</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>801</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>802</v>
@@ -4608,10 +4829,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>230</v>
+        <v>285</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>825</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>231</v>
+        <v>378</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>802</v>
@@ -4619,10 +4843,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>68</v>
+        <v>375</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>825</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>802</v>
@@ -4630,10 +4857,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>298</v>
+        <v>230</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>825</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>341</v>
+        <v>231</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>802</v>
@@ -4641,10 +4871,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>437</v>
+        <v>68</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>825</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>438</v>
+        <v>341</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>802</v>
@@ -4652,10 +4885,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>556</v>
+        <v>298</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>825</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>438</v>
+        <v>341</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>802</v>
@@ -4663,10 +4899,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>72</v>
+        <v>437</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>825</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>73</v>
+        <v>438</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>802</v>
@@ -4674,10 +4913,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>485</v>
+        <v>556</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>825</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>73</v>
+        <v>438</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>802</v>
@@ -4685,10 +4927,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>630</v>
+        <v>72</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>825</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>631</v>
+        <v>73</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>802</v>
@@ -4696,10 +4941,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>11</v>
+        <v>485</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>825</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>802</v>
@@ -4707,10 +4955,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>447</v>
+        <v>630</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>825</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>448</v>
+        <v>631</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>802</v>
@@ -4718,10 +4969,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>155</v>
+        <v>11</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>825</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>802</v>
@@ -4729,10 +4983,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>220</v>
+        <v>447</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>825</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>481</v>
+        <v>448</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>802</v>
@@ -4740,10 +4997,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>281</v>
+        <v>155</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>825</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>282</v>
+        <v>156</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>802</v>
@@ -4751,10 +5011,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>660</v>
+        <v>220</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>825</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>661</v>
+        <v>481</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>802</v>
@@ -4762,10 +5025,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>55</v>
+        <v>865</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>825</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>56</v>
+        <v>282</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>802</v>
@@ -4773,10 +5039,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>434</v>
+        <v>866</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>825</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>435</v>
+        <v>661</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>802</v>
@@ -4784,10 +5053,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>425</v>
+        <v>867</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>825</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>426</v>
+        <v>56</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>802</v>
@@ -4795,10 +5067,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>114</v>
+        <v>868</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>825</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>115</v>
+        <v>435</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>802</v>
@@ -4806,10 +5081,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>198</v>
+        <v>425</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>825</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>287</v>
+        <v>426</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>802</v>
@@ -4817,10 +5095,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>272</v>
+        <v>114</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>825</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>273</v>
+        <v>115</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>802</v>
@@ -4828,13 +5109,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>444</v>
+        <v>198</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>793</v>
+        <v>825</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>632</v>
+        <v>287</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>802</v>
@@ -4842,13 +5123,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>75</v>
+        <v>272</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>679</v>
+        <v>825</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>81</v>
+        <v>273</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>802</v>
@@ -4856,13 +5137,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>175</v>
+        <v>444</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>679</v>
+        <v>793</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>650</v>
+        <v>632</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>802</v>
@@ -4870,13 +5151,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>298</v>
+        <v>75</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>794</v>
+        <v>679</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>300</v>
+        <v>81</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>802</v>
@@ -4884,13 +5165,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>7</v>
+        <v>175</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>786</v>
+        <v>679</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>368</v>
+        <v>650</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>802</v>
@@ -4901,10 +5182,10 @@
         <v>298</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>786</v>
+        <v>794</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>415</v>
+        <v>300</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>802</v>
@@ -4912,13 +5193,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>362</v>
+        <v>810</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>786</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>802</v>
@@ -4926,13 +5207,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>60</v>
+        <v>298</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>775</v>
+        <v>415</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>802</v>
@@ -4940,13 +5221,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>220</v>
+        <v>362</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>222</v>
+        <v>389</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>802</v>
@@ -4954,13 +5235,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>334</v>
+        <v>60</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>678</v>
+        <v>788</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>335</v>
+        <v>775</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>802</v>
@@ -4968,13 +5249,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>278</v>
+        <v>220</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>678</v>
+        <v>792</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>802</v>
@@ -4982,13 +5263,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>487</v>
+        <v>334</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>678</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>488</v>
+        <v>335</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>802</v>
@@ -4996,13 +5277,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>568</v>
+        <v>278</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>678</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>569</v>
+        <v>279</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>802</v>
@@ -5010,13 +5291,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>98</v>
+        <v>487</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>678</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>423</v>
+        <v>488</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>802</v>
@@ -5024,13 +5305,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>311</v>
+        <v>568</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>791</v>
+        <v>678</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>312</v>
+        <v>569</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>802</v>
@@ -5038,13 +5319,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>621</v>
+        <v>98</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>791</v>
+        <v>678</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>622</v>
+        <v>423</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>802</v>
@@ -5052,13 +5333,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>89</v>
+        <v>311</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>791</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>90</v>
+        <v>312</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>802</v>
@@ -5066,10 +5347,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>469</v>
+        <v>621</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>791</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>470</v>
+        <v>622</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>802</v>
@@ -5077,10 +5361,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>58</v>
+        <v>89</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>791</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>802</v>
@@ -5088,10 +5375,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>239</v>
+        <v>826</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>240</v>
+        <v>470</v>
       </c>
       <c r="D134" s="4" t="s">
         <v>802</v>
@@ -5099,10 +5386,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>607</v>
+        <v>827</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>608</v>
+        <v>59</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>802</v>
@@ -5110,10 +5397,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>386</v>
+        <v>828</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>387</v>
+        <v>240</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>802</v>
@@ -5121,10 +5408,10 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>254</v>
+        <v>607</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>255</v>
+        <v>608</v>
       </c>
       <c r="D137" s="4" t="s">
         <v>802</v>
@@ -5132,10 +5419,10 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>604</v>
+        <v>386</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>605</v>
+        <v>387</v>
       </c>
       <c r="D138" s="4" t="s">
         <v>802</v>
@@ -5143,10 +5430,10 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>31</v>
+        <v>254</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>32</v>
+        <v>255</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>802</v>
@@ -5154,10 +5441,10 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>501</v>
+        <v>604</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>502</v>
+        <v>605</v>
       </c>
       <c r="D140" s="4" t="s">
         <v>802</v>
@@ -5165,10 +5452,10 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>305</v>
+        <v>31</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>306</v>
+        <v>32</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>802</v>
@@ -5176,10 +5463,10 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>472</v>
+        <v>501</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>473</v>
+        <v>502</v>
       </c>
       <c r="D142" s="4" t="s">
         <v>802</v>
@@ -5187,10 +5474,10 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>269</v>
+        <v>829</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="D143" s="4" t="s">
         <v>802</v>
@@ -5198,10 +5485,10 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>431</v>
+        <v>830</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>432</v>
+        <v>473</v>
       </c>
       <c r="D144" s="4" t="s">
         <v>802</v>
@@ -5209,10 +5496,10 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>224</v>
+        <v>831</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="D145" s="4" t="s">
         <v>802</v>
@@ -5220,10 +5507,10 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>331</v>
+        <v>832</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>332</v>
+        <v>432</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>802</v>
@@ -5231,10 +5518,10 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>190</v>
+        <v>833</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>802</v>
@@ -5242,10 +5529,10 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>492</v>
+        <v>834</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>493</v>
+        <v>332</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>802</v>
@@ -5253,10 +5540,10 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>158</v>
+        <v>835</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>802</v>
@@ -5264,10 +5551,10 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>258</v>
+        <v>836</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>259</v>
+        <v>493</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>802</v>
@@ -5275,10 +5562,10 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>62</v>
+        <v>837</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="D151" s="4" t="s">
         <v>802</v>
@@ -5286,10 +5573,10 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>509</v>
+        <v>258</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>510</v>
+        <v>259</v>
       </c>
       <c r="D152" s="4" t="s">
         <v>802</v>
@@ -5297,10 +5584,10 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>4</v>
+        <v>196</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>802</v>
@@ -5308,10 +5595,10 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>641</v>
+        <v>509</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>642</v>
+        <v>510</v>
       </c>
       <c r="D154" s="4" t="s">
         <v>802</v>
@@ -5319,10 +5606,10 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>325</v>
+        <v>2</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>326</v>
+        <v>4</v>
       </c>
       <c r="D155" s="4" t="s">
         <v>802</v>
@@ -5330,10 +5617,10 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>245</v>
+        <v>641</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>246</v>
+        <v>642</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>802</v>
@@ -5341,10 +5628,10 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>234</v>
+        <v>838</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>235</v>
+        <v>326</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>802</v>
@@ -5352,10 +5639,10 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>125</v>
+        <v>839</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>126</v>
+        <v>246</v>
       </c>
       <c r="D158" s="4" t="s">
         <v>802</v>
@@ -5363,10 +5650,10 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>107</v>
+        <v>840</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>108</v>
+        <v>235</v>
       </c>
       <c r="D159" s="4" t="s">
         <v>802</v>
@@ -5374,10 +5661,10 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>349</v>
+        <v>841</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>350</v>
+        <v>126</v>
       </c>
       <c r="D160" s="4" t="s">
         <v>802</v>
@@ -5385,10 +5672,10 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>401</v>
+        <v>842</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>402</v>
+        <v>108</v>
       </c>
       <c r="D161" s="4" t="s">
         <v>802</v>
@@ -5396,10 +5683,10 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>120</v>
+        <v>843</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>121</v>
+        <v>350</v>
       </c>
       <c r="D162" s="4" t="s">
         <v>802</v>
@@ -5407,10 +5694,10 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>663</v>
+        <v>401</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>664</v>
+        <v>402</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>802</v>
@@ -5418,10 +5705,10 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>187</v>
+        <v>120</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>188</v>
+        <v>121</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>802</v>
@@ -5429,10 +5716,10 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>428</v>
+        <v>663</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>429</v>
+        <v>664</v>
       </c>
       <c r="D165" s="4" t="s">
         <v>802</v>
@@ -5440,10 +5727,10 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="D166" s="4" t="s">
         <v>802</v>
@@ -5451,10 +5738,10 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>520</v>
+        <v>428</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>521</v>
+        <v>429</v>
       </c>
       <c r="D167" s="4" t="s">
         <v>802</v>
@@ -5462,10 +5749,10 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="D168" s="4" t="s">
         <v>802</v>
@@ -5473,10 +5760,10 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>201</v>
+        <v>520</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>267</v>
+        <v>521</v>
       </c>
       <c r="D169" s="4" t="s">
         <v>802</v>
@@ -5484,10 +5771,10 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="D170" s="4" t="s">
         <v>802</v>
@@ -5495,10 +5782,10 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>383</v>
+        <v>201</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>384</v>
+        <v>267</v>
       </c>
       <c r="D171" s="4" t="s">
         <v>802</v>
@@ -5506,10 +5793,10 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D172" s="4" t="s">
         <v>802</v>
@@ -5517,10 +5804,10 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>101</v>
+        <v>383</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>102</v>
+        <v>384</v>
       </c>
       <c r="D173" s="4" t="s">
         <v>802</v>
@@ -5528,10 +5815,10 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>311</v>
+        <v>25</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>450</v>
+        <v>26</v>
       </c>
       <c r="D174" s="4" t="s">
         <v>802</v>
@@ -5539,10 +5826,10 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>671</v>
+        <v>101</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>672</v>
+        <v>102</v>
       </c>
       <c r="D175" s="4" t="s">
         <v>802</v>
@@ -5550,10 +5837,10 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>175</v>
+        <v>311</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>176</v>
+        <v>450</v>
       </c>
       <c r="D176" s="4" t="s">
         <v>802</v>
@@ -5561,10 +5848,10 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>18</v>
+        <v>671</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>19</v>
+        <v>672</v>
       </c>
       <c r="D177" s="4" t="s">
         <v>802</v>
@@ -5572,10 +5859,10 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D178" s="4" t="s">
         <v>802</v>
@@ -5583,10 +5870,10 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>343</v>
+        <v>18</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>344</v>
+        <v>19</v>
       </c>
       <c r="D179" s="4" t="s">
         <v>802</v>
@@ -5594,10 +5881,10 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>397</v>
+        <v>168</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>398</v>
+        <v>169</v>
       </c>
       <c r="D180" s="4" t="s">
         <v>802</v>
@@ -5608,7 +5895,7 @@
         <v>343</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>504</v>
+        <v>344</v>
       </c>
       <c r="D181" s="4" t="s">
         <v>802</v>
@@ -5616,10 +5903,10 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>592</v>
+        <v>397</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>593</v>
+        <v>398</v>
       </c>
       <c r="D182" s="4" t="s">
         <v>802</v>
@@ -5627,10 +5914,10 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>417</v>
+        <v>343</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>418</v>
+        <v>504</v>
       </c>
       <c r="D183" s="4" t="s">
         <v>802</v>
@@ -5638,10 +5925,10 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>545</v>
+        <v>844</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>546</v>
+        <v>593</v>
       </c>
       <c r="D184" s="4" t="s">
         <v>802</v>
@@ -5649,10 +5936,10 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>394</v>
+        <v>417</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>395</v>
+        <v>418</v>
       </c>
       <c r="D185" s="4" t="s">
         <v>802</v>
@@ -5660,10 +5947,10 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="D186" s="4" t="s">
         <v>802</v>
@@ -5671,10 +5958,10 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>466</v>
+        <v>394</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>467</v>
+        <v>395</v>
       </c>
       <c r="D187" s="4" t="s">
         <v>802</v>
@@ -5682,10 +5969,10 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>21</v>
+        <v>551</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>22</v>
+        <v>552</v>
       </c>
       <c r="D188" s="4" t="s">
         <v>802</v>
@@ -5693,10 +5980,10 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>708</v>
+        <v>466</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>767</v>
+        <v>467</v>
       </c>
       <c r="D189" s="4" t="s">
         <v>802</v>
@@ -5704,10 +5991,10 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>734</v>
+        <v>21</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>733</v>
+        <v>22</v>
       </c>
       <c r="D190" s="4" t="s">
         <v>802</v>
@@ -5715,10 +6002,10 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>651</v>
+        <v>708</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>652</v>
+        <v>767</v>
       </c>
       <c r="D191" s="4" t="s">
         <v>802</v>
@@ -5726,10 +6013,10 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>360</v>
+        <v>734</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>361</v>
+        <v>733</v>
       </c>
       <c r="D192" s="4" t="s">
         <v>802</v>
@@ -5737,10 +6024,10 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>178</v>
+        <v>651</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>179</v>
+        <v>652</v>
       </c>
       <c r="D193" s="4" t="s">
         <v>802</v>
@@ -5748,10 +6035,10 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>70</v>
+        <v>360</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>71</v>
+        <v>361</v>
       </c>
       <c r="D194" s="4" t="s">
         <v>802</v>
@@ -5759,10 +6046,10 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>101</v>
+        <v>178</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="D195" s="4" t="s">
         <v>802</v>
@@ -5770,10 +6057,10 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>362</v>
+        <v>70</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="D196" s="4" t="s">
         <v>802</v>
@@ -5781,10 +6068,10 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>261</v>
+        <v>101</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>262</v>
+        <v>131</v>
       </c>
       <c r="D197" s="4" t="s">
         <v>802</v>
@@ -5792,10 +6079,10 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>499</v>
+        <v>362</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>262</v>
+        <v>131</v>
       </c>
       <c r="D198" s="4" t="s">
         <v>802</v>
@@ -5803,10 +6090,10 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>595</v>
+        <v>812</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>596</v>
+        <v>262</v>
       </c>
       <c r="D199" s="4" t="s">
         <v>802</v>
@@ -5814,10 +6101,10 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>227</v>
+        <v>499</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="D200" s="4" t="s">
         <v>802</v>
@@ -5825,10 +6112,10 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>278</v>
+        <v>807</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>228</v>
+        <v>596</v>
       </c>
       <c r="D201" s="4" t="s">
         <v>802</v>
@@ -5836,10 +6123,10 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>405</v>
+        <v>227</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>406</v>
+        <v>228</v>
       </c>
       <c r="D202" s="4" t="s">
         <v>802</v>
@@ -5847,10 +6134,10 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>611</v>
+        <v>278</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>406</v>
+        <v>228</v>
       </c>
       <c r="D203" s="4" t="s">
         <v>802</v>
@@ -5858,10 +6145,10 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>613</v>
+        <v>405</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>614</v>
+        <v>406</v>
       </c>
       <c r="D204" s="4" t="s">
         <v>802</v>
@@ -5869,10 +6156,10 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>41</v>
+        <v>611</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>42</v>
+        <v>406</v>
       </c>
       <c r="D205" s="4" t="s">
         <v>802</v>
@@ -5880,10 +6167,10 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>356</v>
+        <v>613</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>543</v>
+        <v>614</v>
       </c>
       <c r="D206" s="4" t="s">
         <v>802</v>
@@ -5891,10 +6178,10 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>295</v>
+        <v>42</v>
       </c>
       <c r="D207" s="4" t="s">
         <v>802</v>
@@ -5902,10 +6189,10 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>540</v>
+        <v>356</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D208" s="4" t="s">
         <v>802</v>
@@ -5913,10 +6200,10 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>96</v>
+        <v>295</v>
       </c>
       <c r="D209" s="4" t="s">
         <v>802</v>
@@ -5924,10 +6211,10 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>317</v>
+        <v>540</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>318</v>
+        <v>541</v>
       </c>
       <c r="D210" s="4" t="s">
         <v>802</v>
@@ -5935,10 +6222,10 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>352</v>
+        <v>95</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>353</v>
+        <v>96</v>
       </c>
       <c r="D211" s="4" t="s">
         <v>802</v>
@@ -5946,10 +6233,10 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>78</v>
+        <v>813</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>79</v>
+        <v>318</v>
       </c>
       <c r="D212" s="4" t="s">
         <v>802</v>
@@ -5957,10 +6244,10 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>232</v>
+        <v>352</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>538</v>
+        <v>353</v>
       </c>
       <c r="D213" s="4" t="s">
         <v>802</v>
@@ -5968,10 +6255,10 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>616</v>
+        <v>78</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>617</v>
+        <v>79</v>
       </c>
       <c r="D214" s="4" t="s">
         <v>802</v>
@@ -5979,10 +6266,10 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>666</v>
+        <v>808</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>667</v>
+        <v>538</v>
       </c>
       <c r="D215" s="4" t="s">
         <v>802</v>
@@ -5990,10 +6277,10 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>49</v>
+        <v>616</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>50</v>
+        <v>617</v>
       </c>
       <c r="D216" s="4" t="s">
         <v>802</v>
@@ -6001,10 +6288,10 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>152</v>
+        <v>666</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>153</v>
+        <v>667</v>
       </c>
       <c r="D217" s="4" t="s">
         <v>802</v>
@@ -6012,10 +6299,10 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>487</v>
+        <v>49</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>637</v>
+        <v>50</v>
       </c>
       <c r="D218" s="4" t="s">
         <v>802</v>
@@ -6023,10 +6310,10 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>644</v>
+        <v>152</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>645</v>
+        <v>153</v>
       </c>
       <c r="D219" s="4" t="s">
         <v>802</v>
@@ -6034,10 +6321,10 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>248</v>
+        <v>487</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>249</v>
+        <v>637</v>
       </c>
       <c r="D220" s="4" t="s">
         <v>802</v>
@@ -6045,10 +6332,10 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>65</v>
+        <v>644</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>66</v>
+        <v>645</v>
       </c>
       <c r="D221" s="4" t="s">
         <v>802</v>
@@ -6056,10 +6343,10 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>45</v>
+        <v>248</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>46</v>
+        <v>249</v>
       </c>
       <c r="D222" s="4" t="s">
         <v>802</v>
@@ -6067,10 +6354,10 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D223" s="4" t="s">
         <v>802</v>
@@ -6078,7 +6365,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>164</v>
+        <v>845</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>46</v>
@@ -6089,7 +6376,7 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>166</v>
+        <v>846</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>46</v>
@@ -6100,7 +6387,7 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>237</v>
+        <v>847</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>46</v>
@@ -6111,7 +6398,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>284</v>
+        <v>848</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>46</v>
@@ -6122,7 +6409,7 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>323</v>
+        <v>849</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>46</v>
@@ -6133,7 +6420,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>337</v>
+        <v>850</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>46</v>
@@ -6144,7 +6431,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>490</v>
+        <v>851</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>46</v>
@@ -6155,7 +6442,7 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>577</v>
+        <v>852</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>46</v>
@@ -6166,7 +6453,7 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>588</v>
+        <v>853</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>46</v>
@@ -6177,7 +6464,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>610</v>
+        <v>854</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>46</v>
@@ -6188,7 +6475,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>619</v>
+        <v>855</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>46</v>
@@ -6199,7 +6486,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>639</v>
+        <v>856</v>
       </c>
       <c r="C235" s="3" t="s">
         <v>46</v>
@@ -6210,7 +6497,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>669</v>
+        <v>857</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>46</v>
@@ -6221,10 +6508,10 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>565</v>
+        <v>858</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>566</v>
+        <v>46</v>
       </c>
       <c r="D237" s="4" t="s">
         <v>802</v>
@@ -6232,10 +6519,10 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>511</v>
+        <v>859</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>512</v>
+        <v>46</v>
       </c>
       <c r="D238" s="4" t="s">
         <v>802</v>
@@ -6243,10 +6530,10 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>627</v>
+        <v>565</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>628</v>
+        <v>566</v>
       </c>
       <c r="D239" s="4" t="s">
         <v>802</v>
@@ -6254,10 +6541,10 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>582</v>
+        <v>511</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>583</v>
+        <v>512</v>
       </c>
       <c r="D240" s="4" t="s">
         <v>802</v>
@@ -6265,10 +6552,10 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>181</v>
+        <v>627</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>182</v>
+        <v>628</v>
       </c>
       <c r="D241" s="4" t="s">
         <v>802</v>
@@ -6276,10 +6563,10 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>133</v>
+        <v>582</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>134</v>
+        <v>583</v>
       </c>
       <c r="D242" s="4" t="s">
         <v>802</v>
@@ -6287,10 +6574,10 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>531</v>
+        <v>181</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>532</v>
+        <v>182</v>
       </c>
       <c r="D243" s="4" t="s">
         <v>802</v>
@@ -6298,10 +6585,10 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>372</v>
+        <v>133</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>373</v>
+        <v>134</v>
       </c>
       <c r="D244" s="4" t="s">
         <v>802</v>
@@ -6309,10 +6596,10 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>657</v>
+        <v>531</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>658</v>
+        <v>532</v>
       </c>
       <c r="D245" s="4" t="s">
         <v>802</v>
@@ -6320,10 +6607,10 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>517</v>
+        <v>372</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>518</v>
+        <v>373</v>
       </c>
       <c r="D246" s="4" t="s">
         <v>802</v>
@@ -6331,10 +6618,10 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>554</v>
+        <v>657</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>555</v>
+        <v>658</v>
       </c>
       <c r="D247" s="4" t="s">
         <v>802</v>
@@ -6342,10 +6629,10 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>161</v>
+        <v>517</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>162</v>
+        <v>518</v>
       </c>
       <c r="D248" s="4" t="s">
         <v>802</v>
@@ -6353,10 +6640,10 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>458</v>
+        <v>554</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>162</v>
+        <v>555</v>
       </c>
       <c r="D249" s="4" t="s">
         <v>802</v>
@@ -6364,10 +6651,10 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>346</v>
+        <v>161</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>347</v>
+        <v>162</v>
       </c>
       <c r="D250" s="4" t="s">
         <v>802</v>
@@ -6375,13 +6662,10 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B251" s="2" t="s">
-        <v>801</v>
+        <v>458</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>752</v>
+        <v>162</v>
       </c>
       <c r="D251" s="4" t="s">
         <v>802</v>
@@ -6389,13 +6673,10 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>801</v>
+        <v>346</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>752</v>
+        <v>347</v>
       </c>
       <c r="D252" s="4" t="s">
         <v>802</v>
@@ -6403,13 +6684,13 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>801</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="D253" s="4" t="s">
         <v>802</v>
@@ -6417,13 +6698,13 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>801</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
       <c r="D254" s="4" t="s">
         <v>802</v>
@@ -6431,13 +6712,13 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>485</v>
+        <v>817</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>801</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>724</v>
+        <v>761</v>
       </c>
       <c r="D255" s="4" t="s">
         <v>802</v>
@@ -6445,13 +6726,13 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>232</v>
+        <v>62</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>801</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>756</v>
+        <v>724</v>
       </c>
       <c r="D256" s="4" t="s">
         <v>802</v>
@@ -6459,13 +6740,13 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>780</v>
+        <v>485</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>784</v>
+        <v>801</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>690</v>
+        <v>724</v>
       </c>
       <c r="D257" s="4" t="s">
         <v>802</v>
@@ -6473,13 +6754,13 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>770</v>
+        <v>808</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>784</v>
+        <v>801</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>690</v>
+        <v>756</v>
       </c>
       <c r="D258" s="4" t="s">
         <v>802</v>
@@ -6487,7 +6768,7 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>768</v>
+        <v>780</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>784</v>
@@ -6501,7 +6782,7 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>784</v>
@@ -6515,7 +6796,7 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>784</v>
@@ -6529,7 +6810,7 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>743</v>
+        <v>766</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>784</v>
@@ -6543,7 +6824,7 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>742</v>
+        <v>765</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>784</v>
@@ -6557,7 +6838,7 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>784</v>
@@ -6571,7 +6852,7 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>784</v>
@@ -6585,7 +6866,7 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>729</v>
+        <v>741</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>784</v>
@@ -6599,7 +6880,7 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>718</v>
+        <v>740</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>784</v>
@@ -6613,7 +6894,7 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>711</v>
+        <v>729</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>784</v>
@@ -6627,7 +6908,7 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>784</v>
@@ -6641,7 +6922,7 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>784</v>
@@ -6655,7 +6936,7 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>699</v>
+        <v>710</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>784</v>
@@ -6669,7 +6950,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>784</v>
@@ -6683,7 +6964,7 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>784</v>
@@ -6692,6 +6973,34 @@
         <v>690</v>
       </c>
       <c r="D273" s="4" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="D274" s="4" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="D275" s="4" t="s">
         <v>802</v>
       </c>
     </row>
@@ -6703,11 +7012,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C1C0C0-EC67-495A-BF9C-53B93EBB7DC7}">
-  <dimension ref="A1:G273"/>
+  <dimension ref="A1:G275"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7694,12 +8001,12 @@
         <v>700</v>
       </c>
       <c r="E43" t="s">
-        <v>676</v>
+        <v>870</v>
       </c>
       <c r="F43" t="s">
         <v>111</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="5" t="s">
         <v>797</v>
       </c>
     </row>
@@ -7717,7 +8024,7 @@
         <v>700</v>
       </c>
       <c r="E44" t="s">
-        <v>676</v>
+        <v>870</v>
       </c>
       <c r="F44" t="s">
         <v>111</v>
@@ -7740,7 +8047,7 @@
         <v>700</v>
       </c>
       <c r="E45" t="s">
-        <v>676</v>
+        <v>870</v>
       </c>
       <c r="F45" t="s">
         <v>111</v>
@@ -8783,62 +9090,65 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>47</v>
+        <v>442</v>
       </c>
       <c r="B91" t="s">
-        <v>454</v>
+        <v>170</v>
       </c>
       <c r="C91" t="s">
-        <v>455</v>
+        <v>171</v>
       </c>
       <c r="D91" t="s">
-        <v>703</v>
+        <v>680</v>
       </c>
       <c r="E91" t="s">
-        <v>676</v>
+        <v>798</v>
       </c>
       <c r="F91" t="s">
-        <v>456</v>
-      </c>
-      <c r="G91" t="s">
-        <v>797</v>
+        <v>563</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>0</v>
+        <v>442</v>
       </c>
       <c r="B92" t="s">
-        <v>355</v>
+        <v>443</v>
       </c>
       <c r="C92" t="s">
-        <v>356</v>
+        <v>444</v>
       </c>
       <c r="D92" t="s">
-        <v>357</v>
+        <v>680</v>
       </c>
       <c r="E92" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="F92" t="s">
-        <v>358</v>
+        <v>445</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="B93" t="s">
-        <v>377</v>
+        <v>454</v>
       </c>
       <c r="C93" t="s">
-        <v>285</v>
+        <v>455</v>
       </c>
       <c r="D93" t="s">
-        <v>684</v>
+        <v>703</v>
+      </c>
+      <c r="E93" t="s">
+        <v>869</v>
       </c>
       <c r="F93" t="s">
-        <v>378</v>
+        <v>456</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -8846,322 +9156,433 @@
         <v>0</v>
       </c>
       <c r="B94" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="C94" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="D94" t="s">
-        <v>684</v>
+        <v>357</v>
+      </c>
+      <c r="E94" t="s">
+        <v>801</v>
       </c>
       <c r="F94" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B95" t="s">
-        <v>229</v>
+        <v>377</v>
       </c>
       <c r="C95" t="s">
-        <v>230</v>
+        <v>285</v>
       </c>
       <c r="D95" t="s">
         <v>684</v>
       </c>
+      <c r="E95" t="s">
+        <v>825</v>
+      </c>
       <c r="F95" t="s">
-        <v>231</v>
+        <v>378</v>
+      </c>
+      <c r="G95" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B96" t="s">
-        <v>67</v>
+        <v>374</v>
       </c>
       <c r="C96" t="s">
-        <v>68</v>
+        <v>375</v>
       </c>
       <c r="D96" t="s">
         <v>684</v>
       </c>
+      <c r="E96" t="s">
+        <v>825</v>
+      </c>
       <c r="F96" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+      <c r="G96" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>67</v>
+        <v>229</v>
       </c>
       <c r="C97" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="D97" t="s">
         <v>684</v>
       </c>
+      <c r="E97" t="s">
+        <v>825</v>
+      </c>
       <c r="F97" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+      <c r="G97" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>436</v>
+        <v>67</v>
       </c>
       <c r="C98" t="s">
-        <v>437</v>
+        <v>68</v>
       </c>
       <c r="D98" t="s">
         <v>684</v>
       </c>
+      <c r="E98" t="s">
+        <v>825</v>
+      </c>
       <c r="F98" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+      <c r="G98" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>9</v>
       </c>
       <c r="B99" t="s">
-        <v>436</v>
+        <v>67</v>
       </c>
       <c r="C99" t="s">
-        <v>556</v>
+        <v>298</v>
       </c>
       <c r="D99" t="s">
         <v>684</v>
       </c>
+      <c r="E99" t="s">
+        <v>825</v>
+      </c>
       <c r="F99" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+      <c r="G99" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>9</v>
       </c>
       <c r="B100" t="s">
-        <v>61</v>
+        <v>436</v>
       </c>
       <c r="C100" t="s">
-        <v>72</v>
+        <v>437</v>
       </c>
       <c r="D100" t="s">
         <v>684</v>
       </c>
+      <c r="E100" t="s">
+        <v>825</v>
+      </c>
       <c r="F100" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+      <c r="G100" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>9</v>
       </c>
       <c r="B101" t="s">
-        <v>61</v>
+        <v>436</v>
       </c>
       <c r="C101" t="s">
-        <v>485</v>
+        <v>556</v>
       </c>
       <c r="D101" t="s">
         <v>684</v>
       </c>
+      <c r="E101" t="s">
+        <v>825</v>
+      </c>
       <c r="F101" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+      <c r="G101" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>9</v>
       </c>
       <c r="B102" t="s">
-        <v>629</v>
+        <v>61</v>
       </c>
       <c r="C102" t="s">
-        <v>630</v>
+        <v>72</v>
       </c>
       <c r="D102" t="s">
         <v>684</v>
       </c>
+      <c r="E102" t="s">
+        <v>825</v>
+      </c>
       <c r="F102" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="G102" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>9</v>
       </c>
       <c r="B103" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="C103" t="s">
-        <v>11</v>
+        <v>485</v>
       </c>
       <c r="D103" t="s">
         <v>684</v>
       </c>
+      <c r="E103" t="s">
+        <v>825</v>
+      </c>
       <c r="F103" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="G103" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>9</v>
       </c>
       <c r="B104" t="s">
-        <v>446</v>
+        <v>629</v>
       </c>
       <c r="C104" t="s">
-        <v>447</v>
+        <v>630</v>
       </c>
       <c r="D104" t="s">
         <v>684</v>
       </c>
+      <c r="E104" t="s">
+        <v>825</v>
+      </c>
       <c r="F104" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="G104" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="C105" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="D105" t="s">
         <v>684</v>
       </c>
+      <c r="E105" t="s">
+        <v>825</v>
+      </c>
       <c r="F105" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>9</v>
       </c>
       <c r="B106" t="s">
-        <v>480</v>
+        <v>446</v>
       </c>
       <c r="C106" t="s">
-        <v>220</v>
+        <v>447</v>
       </c>
       <c r="D106" t="s">
         <v>684</v>
       </c>
+      <c r="E106" t="s">
+        <v>825</v>
+      </c>
       <c r="F106" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+      <c r="G106" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="B107" t="s">
-        <v>280</v>
+        <v>154</v>
       </c>
       <c r="C107" t="s">
-        <v>281</v>
+        <v>155</v>
       </c>
       <c r="D107" t="s">
         <v>684</v>
       </c>
+      <c r="E107" t="s">
+        <v>825</v>
+      </c>
       <c r="F107" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="G107" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="B108" t="s">
-        <v>659</v>
+        <v>480</v>
       </c>
       <c r="C108" t="s">
-        <v>660</v>
+        <v>220</v>
       </c>
       <c r="D108" t="s">
         <v>684</v>
       </c>
+      <c r="E108" t="s">
+        <v>825</v>
+      </c>
       <c r="F108" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+      <c r="G108" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>47</v>
       </c>
       <c r="B109" t="s">
-        <v>54</v>
+        <v>280</v>
       </c>
       <c r="C109" t="s">
-        <v>55</v>
+        <v>281</v>
       </c>
       <c r="D109" t="s">
         <v>684</v>
       </c>
+      <c r="E109" t="s">
+        <v>825</v>
+      </c>
       <c r="F109" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>47</v>
       </c>
       <c r="B110" t="s">
-        <v>433</v>
+        <v>659</v>
       </c>
       <c r="C110" t="s">
-        <v>434</v>
+        <v>660</v>
       </c>
       <c r="D110" t="s">
         <v>684</v>
       </c>
+      <c r="E110" t="s">
+        <v>825</v>
+      </c>
       <c r="F110" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+        <v>661</v>
+      </c>
+      <c r="G110" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="B111" t="s">
-        <v>424</v>
+        <v>54</v>
       </c>
       <c r="C111" t="s">
-        <v>425</v>
+        <v>55</v>
       </c>
       <c r="D111" t="s">
         <v>684</v>
       </c>
+      <c r="E111" t="s">
+        <v>825</v>
+      </c>
       <c r="F111" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="G111" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="B112" t="s">
-        <v>113</v>
+        <v>433</v>
       </c>
       <c r="C112" t="s">
-        <v>114</v>
+        <v>434</v>
       </c>
       <c r="D112" t="s">
         <v>684</v>
       </c>
+      <c r="E112" t="s">
+        <v>825</v>
+      </c>
       <c r="F112" t="s">
-        <v>115</v>
+        <v>435</v>
+      </c>
+      <c r="G112" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -9169,16 +9590,22 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>286</v>
+        <v>424</v>
       </c>
       <c r="C113" t="s">
-        <v>198</v>
+        <v>425</v>
       </c>
       <c r="D113" t="s">
         <v>684</v>
       </c>
+      <c r="E113" t="s">
+        <v>825</v>
+      </c>
       <c r="F113" t="s">
-        <v>287</v>
+        <v>426</v>
+      </c>
+      <c r="G113" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -9186,151 +9613,157 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>271</v>
+        <v>113</v>
       </c>
       <c r="C114" t="s">
-        <v>272</v>
+        <v>114</v>
       </c>
       <c r="D114" t="s">
         <v>684</v>
       </c>
+      <c r="E114" t="s">
+        <v>825</v>
+      </c>
       <c r="F114" t="s">
-        <v>273</v>
+        <v>115</v>
+      </c>
+      <c r="G114" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>256</v>
+        <v>112</v>
       </c>
       <c r="B115" t="s">
-        <v>494</v>
+        <v>286</v>
       </c>
       <c r="C115" t="s">
-        <v>444</v>
+        <v>198</v>
       </c>
       <c r="D115" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="E115" t="s">
-        <v>793</v>
+        <v>825</v>
       </c>
       <c r="F115" t="s">
-        <v>632</v>
+        <v>287</v>
       </c>
       <c r="G115" t="s">
-        <v>787</v>
+        <v>824</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="B116" t="s">
-        <v>80</v>
+        <v>271</v>
       </c>
       <c r="C116" t="s">
-        <v>75</v>
+        <v>272</v>
       </c>
       <c r="D116" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E116" t="s">
-        <v>679</v>
+        <v>825</v>
       </c>
       <c r="F116" t="s">
-        <v>81</v>
+        <v>273</v>
       </c>
       <c r="G116" t="s">
-        <v>800</v>
+        <v>824</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>296</v>
+        <v>256</v>
       </c>
       <c r="B117" t="s">
-        <v>649</v>
+        <v>494</v>
       </c>
       <c r="C117" t="s">
-        <v>175</v>
+        <v>444</v>
       </c>
       <c r="D117" t="s">
-        <v>685</v>
+        <v>695</v>
       </c>
       <c r="E117" t="s">
-        <v>679</v>
+        <v>793</v>
       </c>
       <c r="F117" t="s">
-        <v>650</v>
+        <v>632</v>
       </c>
       <c r="G117" t="s">
-        <v>800</v>
+        <v>787</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>296</v>
+        <v>5</v>
       </c>
       <c r="B118" t="s">
-        <v>297</v>
+        <v>80</v>
       </c>
       <c r="C118" t="s">
-        <v>298</v>
+        <v>75</v>
       </c>
       <c r="D118" t="s">
-        <v>299</v>
+        <v>685</v>
       </c>
       <c r="E118" t="s">
-        <v>794</v>
+        <v>679</v>
       </c>
       <c r="F118" t="s">
-        <v>300</v>
+        <v>81</v>
       </c>
       <c r="G118" t="s">
-        <v>787</v>
+        <v>800</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>256</v>
+        <v>296</v>
       </c>
       <c r="B119" t="s">
-        <v>366</v>
+        <v>649</v>
       </c>
       <c r="C119" t="s">
-        <v>7</v>
+        <v>175</v>
       </c>
       <c r="D119" t="s">
-        <v>367</v>
+        <v>685</v>
       </c>
       <c r="E119" t="s">
-        <v>786</v>
+        <v>679</v>
       </c>
       <c r="F119" t="s">
-        <v>368</v>
+        <v>650</v>
       </c>
       <c r="G119" t="s">
-        <v>787</v>
+        <v>800</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>256</v>
+        <v>296</v>
       </c>
       <c r="B120" t="s">
-        <v>414</v>
+        <v>297</v>
       </c>
       <c r="C120" t="s">
         <v>298</v>
       </c>
       <c r="D120" t="s">
-        <v>367</v>
+        <v>299</v>
       </c>
       <c r="E120" t="s">
-        <v>786</v>
+        <v>794</v>
       </c>
       <c r="F120" t="s">
-        <v>415</v>
+        <v>300</v>
       </c>
       <c r="G120" t="s">
         <v>787</v>
@@ -9341,10 +9774,10 @@
         <v>256</v>
       </c>
       <c r="B121" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="C121" t="s">
-        <v>362</v>
+        <v>7</v>
       </c>
       <c r="D121" t="s">
         <v>367</v>
@@ -9353,7 +9786,7 @@
         <v>786</v>
       </c>
       <c r="F121" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="G121" t="s">
         <v>787</v>
@@ -9361,71 +9794,71 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>43</v>
+        <v>256</v>
       </c>
       <c r="B122" t="s">
-        <v>777</v>
+        <v>414</v>
       </c>
       <c r="C122" t="s">
-        <v>60</v>
+        <v>298</v>
       </c>
       <c r="D122" t="s">
-        <v>776</v>
+        <v>367</v>
       </c>
       <c r="E122" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="F122" t="s">
-        <v>775</v>
+        <v>415</v>
       </c>
       <c r="G122" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="B123" t="s">
-        <v>219</v>
+        <v>388</v>
       </c>
       <c r="C123" t="s">
-        <v>220</v>
+        <v>362</v>
       </c>
       <c r="D123" t="s">
-        <v>221</v>
+        <v>367</v>
       </c>
       <c r="E123" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="F123" t="s">
-        <v>222</v>
+        <v>389</v>
       </c>
       <c r="G123" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="B124" t="s">
-        <v>333</v>
+        <v>777</v>
       </c>
       <c r="C124" t="s">
-        <v>334</v>
+        <v>60</v>
       </c>
       <c r="D124" t="s">
-        <v>701</v>
+        <v>776</v>
       </c>
       <c r="E124" t="s">
-        <v>678</v>
+        <v>788</v>
       </c>
       <c r="F124" t="s">
-        <v>335</v>
+        <v>775</v>
       </c>
       <c r="G124" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -9433,19 +9866,19 @@
         <v>0</v>
       </c>
       <c r="B125" t="s">
-        <v>277</v>
+        <v>219</v>
       </c>
       <c r="C125" t="s">
-        <v>278</v>
+        <v>220</v>
       </c>
       <c r="D125" t="s">
-        <v>701</v>
+        <v>221</v>
       </c>
       <c r="E125" t="s">
-        <v>678</v>
+        <v>792</v>
       </c>
       <c r="F125" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="G125" t="s">
         <v>790</v>
@@ -9456,10 +9889,10 @@
         <v>0</v>
       </c>
       <c r="B126" t="s">
-        <v>486</v>
+        <v>333</v>
       </c>
       <c r="C126" t="s">
-        <v>487</v>
+        <v>334</v>
       </c>
       <c r="D126" t="s">
         <v>701</v>
@@ -9468,7 +9901,7 @@
         <v>678</v>
       </c>
       <c r="F126" t="s">
-        <v>488</v>
+        <v>335</v>
       </c>
       <c r="G126" t="s">
         <v>790</v>
@@ -9479,10 +9912,10 @@
         <v>0</v>
       </c>
       <c r="B127" t="s">
-        <v>567</v>
+        <v>277</v>
       </c>
       <c r="C127" t="s">
-        <v>568</v>
+        <v>278</v>
       </c>
       <c r="D127" t="s">
         <v>701</v>
@@ -9491,7 +9924,7 @@
         <v>678</v>
       </c>
       <c r="F127" t="s">
-        <v>569</v>
+        <v>279</v>
       </c>
       <c r="G127" t="s">
         <v>790</v>
@@ -9502,10 +9935,10 @@
         <v>0</v>
       </c>
       <c r="B128" t="s">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="C128" t="s">
-        <v>98</v>
+        <v>487</v>
       </c>
       <c r="D128" t="s">
         <v>701</v>
@@ -9514,7 +9947,7 @@
         <v>678</v>
       </c>
       <c r="F128" t="s">
-        <v>423</v>
+        <v>488</v>
       </c>
       <c r="G128" t="s">
         <v>790</v>
@@ -9525,19 +9958,19 @@
         <v>0</v>
       </c>
       <c r="B129" t="s">
-        <v>310</v>
+        <v>567</v>
       </c>
       <c r="C129" t="s">
-        <v>311</v>
+        <v>568</v>
       </c>
       <c r="D129" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="E129" t="s">
-        <v>791</v>
+        <v>678</v>
       </c>
       <c r="F129" t="s">
-        <v>312</v>
+        <v>569</v>
       </c>
       <c r="G129" t="s">
         <v>790</v>
@@ -9548,19 +9981,19 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>620</v>
+        <v>422</v>
       </c>
       <c r="C130" t="s">
-        <v>621</v>
+        <v>98</v>
       </c>
       <c r="D130" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="E130" t="s">
-        <v>791</v>
+        <v>678</v>
       </c>
       <c r="F130" t="s">
-        <v>622</v>
+        <v>423</v>
       </c>
       <c r="G130" t="s">
         <v>790</v>
@@ -9571,10 +10004,10 @@
         <v>0</v>
       </c>
       <c r="B131" t="s">
-        <v>88</v>
+        <v>310</v>
       </c>
       <c r="C131" t="s">
-        <v>89</v>
+        <v>311</v>
       </c>
       <c r="D131" t="s">
         <v>696</v>
@@ -9583,7 +10016,7 @@
         <v>791</v>
       </c>
       <c r="F131" t="s">
-        <v>90</v>
+        <v>312</v>
       </c>
       <c r="G131" t="s">
         <v>790</v>
@@ -9594,16 +10027,22 @@
         <v>0</v>
       </c>
       <c r="B132" t="s">
-        <v>468</v>
+        <v>620</v>
       </c>
       <c r="C132" t="s">
-        <v>469</v>
+        <v>621</v>
       </c>
       <c r="D132" t="s">
-        <v>3</v>
+        <v>696</v>
+      </c>
+      <c r="E132" t="s">
+        <v>791</v>
       </c>
       <c r="F132" t="s">
-        <v>470</v>
+        <v>622</v>
+      </c>
+      <c r="G132" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -9611,16 +10050,22 @@
         <v>0</v>
       </c>
       <c r="B133" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="C133" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="D133" t="s">
-        <v>3</v>
+        <v>696</v>
+      </c>
+      <c r="E133" t="s">
+        <v>791</v>
       </c>
       <c r="F133" t="s">
-        <v>59</v>
+        <v>90</v>
+      </c>
+      <c r="G133" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -9628,16 +10073,16 @@
         <v>0</v>
       </c>
       <c r="B134" t="s">
-        <v>238</v>
+        <v>468</v>
       </c>
       <c r="C134" t="s">
-        <v>239</v>
+        <v>469</v>
       </c>
       <c r="D134" t="s">
         <v>3</v>
       </c>
       <c r="F134" t="s">
-        <v>240</v>
+        <v>470</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -9645,16 +10090,16 @@
         <v>0</v>
       </c>
       <c r="B135" t="s">
-        <v>606</v>
+        <v>57</v>
       </c>
       <c r="C135" t="s">
-        <v>607</v>
+        <v>58</v>
       </c>
       <c r="D135" t="s">
         <v>3</v>
       </c>
       <c r="F135" t="s">
-        <v>608</v>
+        <v>59</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -9662,16 +10107,16 @@
         <v>0</v>
       </c>
       <c r="B136" t="s">
-        <v>385</v>
+        <v>238</v>
       </c>
       <c r="C136" t="s">
-        <v>386</v>
+        <v>239</v>
       </c>
       <c r="D136" t="s">
         <v>3</v>
       </c>
       <c r="F136" t="s">
-        <v>387</v>
+        <v>240</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -9679,16 +10124,16 @@
         <v>0</v>
       </c>
       <c r="B137" t="s">
-        <v>253</v>
+        <v>606</v>
       </c>
       <c r="C137" t="s">
-        <v>254</v>
+        <v>607</v>
       </c>
       <c r="D137" t="s">
         <v>3</v>
       </c>
       <c r="F137" t="s">
-        <v>255</v>
+        <v>608</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -9696,16 +10141,16 @@
         <v>0</v>
       </c>
       <c r="B138" t="s">
-        <v>603</v>
+        <v>385</v>
       </c>
       <c r="C138" t="s">
-        <v>604</v>
+        <v>386</v>
       </c>
       <c r="D138" t="s">
         <v>3</v>
       </c>
       <c r="F138" t="s">
-        <v>605</v>
+        <v>387</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -9713,16 +10158,16 @@
         <v>0</v>
       </c>
       <c r="B139" t="s">
-        <v>30</v>
+        <v>253</v>
       </c>
       <c r="C139" t="s">
-        <v>31</v>
+        <v>254</v>
       </c>
       <c r="D139" t="s">
         <v>3</v>
       </c>
       <c r="F139" t="s">
-        <v>32</v>
+        <v>255</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -9730,16 +10175,16 @@
         <v>0</v>
       </c>
       <c r="B140" t="s">
-        <v>500</v>
+        <v>603</v>
       </c>
       <c r="C140" t="s">
-        <v>501</v>
+        <v>604</v>
       </c>
       <c r="D140" t="s">
         <v>3</v>
       </c>
       <c r="F140" t="s">
-        <v>502</v>
+        <v>605</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -9747,16 +10192,16 @@
         <v>0</v>
       </c>
       <c r="B141" t="s">
-        <v>304</v>
+        <v>30</v>
       </c>
       <c r="C141" t="s">
-        <v>305</v>
+        <v>31</v>
       </c>
       <c r="D141" t="s">
         <v>3</v>
       </c>
       <c r="F141" t="s">
-        <v>306</v>
+        <v>32</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -9764,16 +10209,19 @@
         <v>0</v>
       </c>
       <c r="B142" t="s">
-        <v>471</v>
+        <v>500</v>
       </c>
       <c r="C142" t="s">
-        <v>472</v>
+        <v>501</v>
       </c>
       <c r="D142" t="s">
         <v>3</v>
       </c>
       <c r="F142" t="s">
-        <v>473</v>
+        <v>502</v>
+      </c>
+      <c r="G142" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -9781,16 +10229,19 @@
         <v>0</v>
       </c>
       <c r="B143" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="C143" t="s">
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="D143" t="s">
         <v>3</v>
       </c>
       <c r="F143" t="s">
-        <v>270</v>
+        <v>306</v>
+      </c>
+      <c r="G143" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -9798,339 +10249,363 @@
         <v>0</v>
       </c>
       <c r="B144" t="s">
-        <v>430</v>
+        <v>471</v>
       </c>
       <c r="C144" t="s">
-        <v>431</v>
+        <v>472</v>
       </c>
       <c r="D144" t="s">
         <v>3</v>
       </c>
       <c r="F144" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+      <c r="G144" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>0</v>
       </c>
       <c r="B145" t="s">
-        <v>223</v>
+        <v>268</v>
       </c>
       <c r="C145" t="s">
-        <v>224</v>
+        <v>269</v>
       </c>
       <c r="D145" t="s">
         <v>3</v>
       </c>
       <c r="F145" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+      <c r="G145" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>0</v>
       </c>
       <c r="B146" t="s">
-        <v>330</v>
+        <v>430</v>
       </c>
       <c r="C146" t="s">
-        <v>331</v>
+        <v>431</v>
       </c>
       <c r="D146" t="s">
         <v>3</v>
       </c>
       <c r="F146" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+      <c r="G146" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>0</v>
       </c>
       <c r="B147" t="s">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="C147" t="s">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="D147" t="s">
         <v>3</v>
       </c>
       <c r="F147" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="G147" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>0</v>
       </c>
       <c r="B148" t="s">
-        <v>491</v>
+        <v>330</v>
       </c>
       <c r="C148" t="s">
-        <v>492</v>
+        <v>331</v>
       </c>
       <c r="D148" t="s">
         <v>3</v>
       </c>
       <c r="F148" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+      <c r="G148" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>0</v>
       </c>
       <c r="B149" t="s">
+        <v>189</v>
+      </c>
+      <c r="C149" t="s">
+        <v>190</v>
+      </c>
+      <c r="D149" t="s">
+        <v>3</v>
+      </c>
+      <c r="F149" t="s">
+        <v>191</v>
+      </c>
+      <c r="G149" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>0</v>
+      </c>
+      <c r="B150" t="s">
+        <v>491</v>
+      </c>
+      <c r="C150" t="s">
+        <v>492</v>
+      </c>
+      <c r="D150" t="s">
+        <v>3</v>
+      </c>
+      <c r="F150" t="s">
+        <v>493</v>
+      </c>
+      <c r="G150" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>0</v>
+      </c>
+      <c r="B151" t="s">
         <v>157</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C151" t="s">
         <v>158</v>
       </c>
-      <c r="D149" t="s">
-        <v>3</v>
-      </c>
-      <c r="F149" t="s">
+      <c r="D151" t="s">
+        <v>3</v>
+      </c>
+      <c r="F151" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="G151" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>256</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B152" t="s">
         <v>257</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C152" t="s">
         <v>258</v>
       </c>
-      <c r="D150" t="s">
-        <v>3</v>
-      </c>
-      <c r="F150" t="s">
+      <c r="D152" t="s">
+        <v>3</v>
+      </c>
+      <c r="F152" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>47</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B153" t="s">
         <v>195</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C153" t="s">
         <v>62</v>
       </c>
-      <c r="D151" t="s">
-        <v>3</v>
-      </c>
-      <c r="F151" t="s">
+      <c r="D153" t="s">
+        <v>3</v>
+      </c>
+      <c r="F153" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>0</v>
-      </c>
-      <c r="B152" t="s">
-        <v>508</v>
-      </c>
-      <c r="C152" t="s">
-        <v>509</v>
-      </c>
-      <c r="D152" t="s">
-        <v>3</v>
-      </c>
-      <c r="F152" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>0</v>
-      </c>
-      <c r="B153" t="s">
-        <v>1</v>
-      </c>
-      <c r="C153" t="s">
-        <v>2</v>
-      </c>
-      <c r="D153" t="s">
-        <v>3</v>
-      </c>
-      <c r="F153" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>0</v>
       </c>
       <c r="B154" t="s">
-        <v>640</v>
+        <v>508</v>
       </c>
       <c r="C154" t="s">
-        <v>641</v>
+        <v>509</v>
       </c>
       <c r="D154" t="s">
         <v>3</v>
       </c>
       <c r="F154" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>0</v>
       </c>
       <c r="B155" t="s">
-        <v>324</v>
+        <v>1</v>
       </c>
       <c r="C155" t="s">
-        <v>325</v>
+        <v>2</v>
       </c>
       <c r="D155" t="s">
         <v>3</v>
       </c>
       <c r="F155" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>0</v>
       </c>
       <c r="B156" t="s">
-        <v>244</v>
+        <v>640</v>
       </c>
       <c r="C156" t="s">
-        <v>245</v>
+        <v>641</v>
       </c>
       <c r="D156" t="s">
         <v>3</v>
       </c>
       <c r="F156" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>0</v>
       </c>
       <c r="B157" t="s">
-        <v>233</v>
+        <v>324</v>
       </c>
       <c r="C157" t="s">
-        <v>234</v>
+        <v>325</v>
       </c>
       <c r="D157" t="s">
         <v>3</v>
       </c>
       <c r="F157" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>0</v>
       </c>
       <c r="B158" t="s">
-        <v>124</v>
+        <v>244</v>
       </c>
       <c r="C158" t="s">
-        <v>125</v>
+        <v>245</v>
       </c>
       <c r="D158" t="s">
         <v>3</v>
       </c>
       <c r="F158" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>0</v>
       </c>
       <c r="B159" t="s">
-        <v>106</v>
+        <v>233</v>
       </c>
       <c r="C159" t="s">
-        <v>107</v>
+        <v>234</v>
       </c>
       <c r="D159" t="s">
         <v>3</v>
       </c>
       <c r="F159" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>0</v>
       </c>
       <c r="B160" t="s">
-        <v>348</v>
+        <v>124</v>
       </c>
       <c r="C160" t="s">
-        <v>349</v>
+        <v>125</v>
       </c>
       <c r="D160" t="s">
         <v>3</v>
       </c>
       <c r="F160" t="s">
-        <v>350</v>
+        <v>126</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B161" t="s">
-        <v>400</v>
+        <v>106</v>
       </c>
       <c r="C161" t="s">
-        <v>401</v>
+        <v>107</v>
       </c>
       <c r="D161" t="s">
         <v>3</v>
       </c>
       <c r="F161" t="s">
-        <v>402</v>
+        <v>108</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B162" t="s">
-        <v>119</v>
+        <v>348</v>
       </c>
       <c r="C162" t="s">
-        <v>120</v>
+        <v>349</v>
       </c>
       <c r="D162" t="s">
         <v>3</v>
       </c>
       <c r="F162" t="s">
-        <v>121</v>
+        <v>350</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B163" t="s">
-        <v>662</v>
+        <v>400</v>
       </c>
       <c r="C163" t="s">
-        <v>663</v>
+        <v>401</v>
       </c>
       <c r="D163" t="s">
         <v>3</v>
       </c>
       <c r="F163" t="s">
-        <v>664</v>
+        <v>402</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -10138,16 +10613,16 @@
         <v>23</v>
       </c>
       <c r="B164" t="s">
-        <v>186</v>
+        <v>119</v>
       </c>
       <c r="C164" t="s">
-        <v>187</v>
+        <v>120</v>
       </c>
       <c r="D164" t="s">
         <v>3</v>
       </c>
       <c r="F164" t="s">
-        <v>188</v>
+        <v>121</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -10155,16 +10630,16 @@
         <v>23</v>
       </c>
       <c r="B165" t="s">
-        <v>427</v>
+        <v>662</v>
       </c>
       <c r="C165" t="s">
-        <v>428</v>
+        <v>663</v>
       </c>
       <c r="D165" t="s">
         <v>3</v>
       </c>
       <c r="F165" t="s">
-        <v>429</v>
+        <v>664</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -10172,50 +10647,50 @@
         <v>23</v>
       </c>
       <c r="B166" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="C166" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="D166" t="s">
         <v>3</v>
       </c>
       <c r="F166" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B167" t="s">
-        <v>519</v>
+        <v>427</v>
       </c>
       <c r="C167" t="s">
-        <v>520</v>
+        <v>428</v>
       </c>
       <c r="D167" t="s">
         <v>3</v>
       </c>
       <c r="F167" t="s">
-        <v>521</v>
+        <v>429</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B168" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="C168" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="D168" t="s">
         <v>3</v>
       </c>
       <c r="F168" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -10223,16 +10698,16 @@
         <v>47</v>
       </c>
       <c r="B169" t="s">
-        <v>266</v>
+        <v>519</v>
       </c>
       <c r="C169" t="s">
-        <v>201</v>
+        <v>520</v>
       </c>
       <c r="D169" t="s">
         <v>3</v>
       </c>
       <c r="F169" t="s">
-        <v>267</v>
+        <v>521</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -10240,101 +10715,101 @@
         <v>47</v>
       </c>
       <c r="B170" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="C170" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="D170" t="s">
         <v>3</v>
       </c>
       <c r="F170" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B171" t="s">
-        <v>382</v>
+        <v>266</v>
       </c>
       <c r="C171" t="s">
-        <v>383</v>
+        <v>201</v>
       </c>
       <c r="D171" t="s">
         <v>3</v>
       </c>
       <c r="F171" t="s">
-        <v>384</v>
+        <v>267</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B172" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="C172" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D172" t="s">
         <v>3</v>
       </c>
       <c r="F172" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B173" t="s">
-        <v>100</v>
+        <v>382</v>
       </c>
       <c r="C173" t="s">
-        <v>101</v>
+        <v>383</v>
       </c>
       <c r="D173" t="s">
         <v>3</v>
       </c>
       <c r="F173" t="s">
-        <v>102</v>
+        <v>384</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>173</v>
+        <v>23</v>
       </c>
       <c r="B174" t="s">
-        <v>449</v>
+        <v>24</v>
       </c>
       <c r="C174" t="s">
-        <v>311</v>
+        <v>25</v>
       </c>
       <c r="D174" t="s">
         <v>3</v>
       </c>
       <c r="F174" t="s">
-        <v>450</v>
+        <v>26</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>173</v>
+        <v>23</v>
       </c>
       <c r="B175" t="s">
-        <v>670</v>
+        <v>100</v>
       </c>
       <c r="C175" t="s">
-        <v>671</v>
+        <v>101</v>
       </c>
       <c r="D175" t="s">
         <v>3</v>
       </c>
       <c r="F175" t="s">
-        <v>672</v>
+        <v>102</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -10342,92 +10817,92 @@
         <v>173</v>
       </c>
       <c r="B176" t="s">
-        <v>174</v>
+        <v>449</v>
       </c>
       <c r="C176" t="s">
-        <v>175</v>
+        <v>311</v>
       </c>
       <c r="D176" t="s">
         <v>3</v>
       </c>
       <c r="F176" t="s">
-        <v>176</v>
+        <v>450</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>16</v>
+        <v>173</v>
       </c>
       <c r="B177" t="s">
-        <v>17</v>
+        <v>670</v>
       </c>
       <c r="C177" t="s">
-        <v>18</v>
+        <v>671</v>
       </c>
       <c r="D177" t="s">
         <v>3</v>
       </c>
       <c r="F177" t="s">
-        <v>19</v>
+        <v>672</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>16</v>
+        <v>173</v>
       </c>
       <c r="B178" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C178" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D178" t="s">
         <v>3</v>
       </c>
       <c r="F178" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="B179" t="s">
-        <v>342</v>
+        <v>17</v>
       </c>
       <c r="C179" t="s">
-        <v>343</v>
+        <v>18</v>
       </c>
       <c r="D179" t="s">
         <v>3</v>
       </c>
       <c r="F179" t="s">
-        <v>344</v>
+        <v>19</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="B180" t="s">
-        <v>396</v>
+        <v>167</v>
       </c>
       <c r="C180" t="s">
-        <v>397</v>
+        <v>168</v>
       </c>
       <c r="D180" t="s">
         <v>3</v>
       </c>
       <c r="F180" t="s">
-        <v>398</v>
+        <v>169</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>442</v>
+        <v>47</v>
       </c>
       <c r="B181" t="s">
-        <v>503</v>
+        <v>342</v>
       </c>
       <c r="C181" t="s">
         <v>343</v>
@@ -10436,194 +10911,194 @@
         <v>3</v>
       </c>
       <c r="F181" t="s">
-        <v>504</v>
+        <v>344</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="B182" t="s">
-        <v>591</v>
+        <v>396</v>
       </c>
       <c r="C182" t="s">
-        <v>592</v>
+        <v>397</v>
       </c>
       <c r="D182" t="s">
         <v>3</v>
       </c>
       <c r="F182" t="s">
-        <v>593</v>
+        <v>398</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>47</v>
+        <v>442</v>
       </c>
       <c r="B183" t="s">
-        <v>416</v>
+        <v>503</v>
       </c>
       <c r="C183" t="s">
-        <v>417</v>
+        <v>343</v>
       </c>
       <c r="D183" t="s">
         <v>3</v>
       </c>
       <c r="F183" t="s">
-        <v>418</v>
+        <v>504</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="B184" t="s">
-        <v>544</v>
+        <v>591</v>
       </c>
       <c r="C184" t="s">
-        <v>545</v>
+        <v>592</v>
       </c>
       <c r="D184" t="s">
         <v>3</v>
       </c>
       <c r="F184" t="s">
-        <v>546</v>
+        <v>593</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="B185" t="s">
-        <v>393</v>
+        <v>416</v>
       </c>
       <c r="C185" t="s">
-        <v>394</v>
+        <v>417</v>
       </c>
       <c r="D185" t="s">
         <v>3</v>
       </c>
       <c r="F185" t="s">
-        <v>395</v>
+        <v>418</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>173</v>
+        <v>112</v>
       </c>
       <c r="B186" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="C186" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="D186" t="s">
         <v>3</v>
       </c>
       <c r="F186" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>173</v>
+        <v>112</v>
       </c>
       <c r="B187" t="s">
-        <v>465</v>
+        <v>393</v>
       </c>
       <c r="C187" t="s">
-        <v>466</v>
+        <v>394</v>
       </c>
       <c r="D187" t="s">
         <v>3</v>
       </c>
       <c r="F187" t="s">
-        <v>467</v>
+        <v>395</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="B188" t="s">
-        <v>20</v>
+        <v>550</v>
       </c>
       <c r="C188" t="s">
-        <v>21</v>
+        <v>551</v>
       </c>
       <c r="D188" t="s">
         <v>3</v>
       </c>
       <c r="F188" t="s">
-        <v>22</v>
+        <v>552</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>736</v>
+        <v>173</v>
       </c>
       <c r="B189" t="s">
-        <v>735</v>
+        <v>465</v>
       </c>
       <c r="C189" t="s">
-        <v>708</v>
+        <v>466</v>
       </c>
       <c r="D189" t="s">
         <v>3</v>
       </c>
       <c r="F189" t="s">
-        <v>767</v>
+        <v>467</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>736</v>
+        <v>20</v>
       </c>
       <c r="B190" t="s">
-        <v>735</v>
+        <v>20</v>
       </c>
       <c r="C190" t="s">
-        <v>734</v>
+        <v>21</v>
       </c>
       <c r="D190" t="s">
         <v>3</v>
       </c>
       <c r="F190" t="s">
-        <v>733</v>
+        <v>22</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>9</v>
+        <v>736</v>
       </c>
       <c r="B191" t="s">
-        <v>651</v>
+        <v>735</v>
       </c>
       <c r="C191" t="s">
-        <v>651</v>
+        <v>708</v>
       </c>
       <c r="D191" t="s">
         <v>3</v>
       </c>
       <c r="F191" t="s">
-        <v>652</v>
+        <v>767</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>9</v>
+        <v>736</v>
       </c>
       <c r="B192" t="s">
-        <v>359</v>
+        <v>735</v>
       </c>
       <c r="C192" t="s">
-        <v>360</v>
+        <v>734</v>
       </c>
       <c r="D192" t="s">
         <v>3</v>
       </c>
       <c r="F192" t="s">
-        <v>361</v>
+        <v>733</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -10631,16 +11106,16 @@
         <v>9</v>
       </c>
       <c r="B193" t="s">
-        <v>177</v>
+        <v>651</v>
       </c>
       <c r="C193" t="s">
-        <v>178</v>
+        <v>651</v>
       </c>
       <c r="D193" t="s">
         <v>3</v>
       </c>
       <c r="F193" t="s">
-        <v>179</v>
+        <v>652</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -10648,84 +11123,84 @@
         <v>9</v>
       </c>
       <c r="B194" t="s">
-        <v>69</v>
+        <v>359</v>
       </c>
       <c r="C194" t="s">
-        <v>70</v>
+        <v>360</v>
       </c>
       <c r="D194" t="s">
         <v>3</v>
       </c>
       <c r="F194" t="s">
-        <v>71</v>
+        <v>361</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B195" t="s">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="C195" t="s">
-        <v>101</v>
+        <v>178</v>
       </c>
       <c r="D195" t="s">
         <v>3</v>
       </c>
       <c r="F195" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B196" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="C196" t="s">
-        <v>362</v>
+        <v>70</v>
       </c>
       <c r="D196" t="s">
         <v>3</v>
       </c>
       <c r="F196" t="s">
-        <v>131</v>
+        <v>71</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B197" t="s">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="C197" t="s">
-        <v>261</v>
+        <v>101</v>
       </c>
       <c r="D197" t="s">
         <v>3</v>
       </c>
       <c r="F197" t="s">
-        <v>262</v>
+        <v>131</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B198" t="s">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="C198" t="s">
-        <v>499</v>
+        <v>362</v>
       </c>
       <c r="D198" t="s">
         <v>3</v>
       </c>
       <c r="F198" t="s">
-        <v>262</v>
+        <v>131</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -10733,50 +11208,50 @@
         <v>47</v>
       </c>
       <c r="B199" t="s">
-        <v>594</v>
+        <v>260</v>
       </c>
       <c r="C199" t="s">
-        <v>595</v>
+        <v>261</v>
       </c>
       <c r="D199" t="s">
         <v>3</v>
       </c>
       <c r="F199" t="s">
-        <v>596</v>
+        <v>262</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B200" t="s">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="C200" t="s">
-        <v>227</v>
+        <v>499</v>
       </c>
       <c r="D200" t="s">
         <v>3</v>
       </c>
       <c r="F200" t="s">
-        <v>228</v>
+        <v>262</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B201" t="s">
-        <v>226</v>
+        <v>594</v>
       </c>
       <c r="C201" t="s">
-        <v>278</v>
+        <v>595</v>
       </c>
       <c r="D201" t="s">
         <v>3</v>
       </c>
       <c r="F201" t="s">
-        <v>228</v>
+        <v>596</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -10784,16 +11259,16 @@
         <v>39</v>
       </c>
       <c r="B202" t="s">
-        <v>404</v>
+        <v>226</v>
       </c>
       <c r="C202" t="s">
-        <v>405</v>
+        <v>227</v>
       </c>
       <c r="D202" t="s">
         <v>3</v>
       </c>
       <c r="F202" t="s">
-        <v>406</v>
+        <v>228</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -10801,16 +11276,16 @@
         <v>39</v>
       </c>
       <c r="B203" t="s">
-        <v>404</v>
+        <v>226</v>
       </c>
       <c r="C203" t="s">
-        <v>611</v>
+        <v>278</v>
       </c>
       <c r="D203" t="s">
         <v>3</v>
       </c>
       <c r="F203" t="s">
-        <v>406</v>
+        <v>228</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -10818,16 +11293,16 @@
         <v>39</v>
       </c>
       <c r="B204" t="s">
-        <v>612</v>
+        <v>404</v>
       </c>
       <c r="C204" t="s">
-        <v>613</v>
+        <v>405</v>
       </c>
       <c r="D204" t="s">
         <v>3</v>
       </c>
       <c r="F204" t="s">
-        <v>614</v>
+        <v>406</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -10835,16 +11310,16 @@
         <v>39</v>
       </c>
       <c r="B205" t="s">
-        <v>40</v>
+        <v>404</v>
       </c>
       <c r="C205" t="s">
-        <v>41</v>
+        <v>611</v>
       </c>
       <c r="D205" t="s">
         <v>3</v>
       </c>
       <c r="F205" t="s">
-        <v>42</v>
+        <v>406</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -10852,16 +11327,16 @@
         <v>39</v>
       </c>
       <c r="B206" t="s">
-        <v>542</v>
+        <v>612</v>
       </c>
       <c r="C206" t="s">
-        <v>356</v>
+        <v>613</v>
       </c>
       <c r="D206" t="s">
         <v>3</v>
       </c>
       <c r="F206" t="s">
-        <v>543</v>
+        <v>614</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -10869,16 +11344,16 @@
         <v>39</v>
       </c>
       <c r="B207" t="s">
-        <v>294</v>
+        <v>40</v>
       </c>
       <c r="C207" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D207" t="s">
         <v>3</v>
       </c>
       <c r="F207" t="s">
-        <v>295</v>
+        <v>42</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -10886,16 +11361,16 @@
         <v>39</v>
       </c>
       <c r="B208" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="C208" t="s">
-        <v>540</v>
+        <v>356</v>
       </c>
       <c r="D208" t="s">
         <v>3</v>
       </c>
       <c r="F208" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -10903,50 +11378,50 @@
         <v>39</v>
       </c>
       <c r="B209" t="s">
-        <v>94</v>
+        <v>294</v>
       </c>
       <c r="C209" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="D209" t="s">
         <v>3</v>
       </c>
       <c r="F209" t="s">
-        <v>96</v>
+        <v>295</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B210" t="s">
-        <v>316</v>
+        <v>539</v>
       </c>
       <c r="C210" t="s">
-        <v>317</v>
+        <v>540</v>
       </c>
       <c r="D210" t="s">
         <v>3</v>
       </c>
       <c r="F210" t="s">
-        <v>318</v>
+        <v>541</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B211" t="s">
-        <v>351</v>
+        <v>94</v>
       </c>
       <c r="C211" t="s">
-        <v>352</v>
+        <v>95</v>
       </c>
       <c r="D211" t="s">
         <v>3</v>
       </c>
       <c r="F211" t="s">
-        <v>353</v>
+        <v>96</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -10954,16 +11429,16 @@
         <v>47</v>
       </c>
       <c r="B212" t="s">
-        <v>77</v>
+        <v>316</v>
       </c>
       <c r="C212" t="s">
-        <v>78</v>
+        <v>317</v>
       </c>
       <c r="D212" t="s">
         <v>3</v>
       </c>
       <c r="F212" t="s">
-        <v>79</v>
+        <v>318</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -10971,16 +11446,16 @@
         <v>47</v>
       </c>
       <c r="B213" t="s">
-        <v>537</v>
+        <v>351</v>
       </c>
       <c r="C213" t="s">
-        <v>232</v>
+        <v>352</v>
       </c>
       <c r="D213" t="s">
         <v>3</v>
       </c>
       <c r="F213" t="s">
-        <v>538</v>
+        <v>353</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -10988,16 +11463,16 @@
         <v>47</v>
       </c>
       <c r="B214" t="s">
-        <v>615</v>
+        <v>77</v>
       </c>
       <c r="C214" t="s">
-        <v>616</v>
+        <v>78</v>
       </c>
       <c r="D214" t="s">
         <v>3</v>
       </c>
       <c r="F214" t="s">
-        <v>617</v>
+        <v>79</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -11005,16 +11480,16 @@
         <v>47</v>
       </c>
       <c r="B215" t="s">
-        <v>665</v>
+        <v>537</v>
       </c>
       <c r="C215" t="s">
-        <v>666</v>
+        <v>232</v>
       </c>
       <c r="D215" t="s">
         <v>3</v>
       </c>
       <c r="F215" t="s">
-        <v>667</v>
+        <v>538</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -11022,16 +11497,16 @@
         <v>47</v>
       </c>
       <c r="B216" t="s">
-        <v>48</v>
+        <v>615</v>
       </c>
       <c r="C216" t="s">
-        <v>49</v>
+        <v>616</v>
       </c>
       <c r="D216" t="s">
         <v>3</v>
       </c>
       <c r="F216" t="s">
-        <v>50</v>
+        <v>617</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -11039,33 +11514,33 @@
         <v>47</v>
       </c>
       <c r="B217" t="s">
-        <v>151</v>
+        <v>665</v>
       </c>
       <c r="C217" t="s">
-        <v>152</v>
+        <v>666</v>
       </c>
       <c r="D217" t="s">
         <v>3</v>
       </c>
       <c r="F217" t="s">
-        <v>153</v>
+        <v>667</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B218" t="s">
-        <v>636</v>
+        <v>48</v>
       </c>
       <c r="C218" t="s">
-        <v>487</v>
+        <v>49</v>
       </c>
       <c r="D218" t="s">
         <v>3</v>
       </c>
       <c r="F218" t="s">
-        <v>637</v>
+        <v>50</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
@@ -11073,84 +11548,84 @@
         <v>47</v>
       </c>
       <c r="B219" t="s">
-        <v>643</v>
+        <v>151</v>
       </c>
       <c r="C219" t="s">
-        <v>644</v>
+        <v>152</v>
       </c>
       <c r="D219" t="s">
         <v>3</v>
       </c>
       <c r="F219" t="s">
-        <v>645</v>
+        <v>153</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B220" t="s">
-        <v>247</v>
+        <v>636</v>
       </c>
       <c r="C220" t="s">
-        <v>248</v>
+        <v>487</v>
       </c>
       <c r="D220" t="s">
         <v>3</v>
       </c>
       <c r="F220" t="s">
-        <v>249</v>
+        <v>637</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B221" t="s">
-        <v>64</v>
+        <v>643</v>
       </c>
       <c r="C221" t="s">
-        <v>65</v>
+        <v>644</v>
       </c>
       <c r="D221" t="s">
         <v>3</v>
       </c>
       <c r="F221" t="s">
-        <v>66</v>
+        <v>645</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B222" t="s">
-        <v>44</v>
+        <v>247</v>
       </c>
       <c r="C222" t="s">
-        <v>45</v>
+        <v>248</v>
       </c>
       <c r="D222" t="s">
         <v>3</v>
       </c>
       <c r="F222" t="s">
-        <v>46</v>
+        <v>249</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="B223" t="s">
-        <v>149</v>
+        <v>64</v>
       </c>
       <c r="C223" t="s">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="D223" t="s">
         <v>3</v>
       </c>
       <c r="F223" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
@@ -11158,10 +11633,10 @@
         <v>43</v>
       </c>
       <c r="B224" t="s">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="C224" t="s">
-        <v>164</v>
+        <v>45</v>
       </c>
       <c r="D224" t="s">
         <v>3</v>
@@ -11175,10 +11650,10 @@
         <v>43</v>
       </c>
       <c r="B225" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="C225" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="D225" t="s">
         <v>3</v>
@@ -11192,10 +11667,10 @@
         <v>43</v>
       </c>
       <c r="B226" t="s">
-        <v>236</v>
+        <v>163</v>
       </c>
       <c r="C226" t="s">
-        <v>237</v>
+        <v>164</v>
       </c>
       <c r="D226" t="s">
         <v>3</v>
@@ -11209,10 +11684,10 @@
         <v>43</v>
       </c>
       <c r="B227" t="s">
-        <v>283</v>
+        <v>165</v>
       </c>
       <c r="C227" t="s">
-        <v>284</v>
+        <v>166</v>
       </c>
       <c r="D227" t="s">
         <v>3</v>
@@ -11226,10 +11701,10 @@
         <v>43</v>
       </c>
       <c r="B228" t="s">
-        <v>322</v>
+        <v>236</v>
       </c>
       <c r="C228" t="s">
-        <v>323</v>
+        <v>237</v>
       </c>
       <c r="D228" t="s">
         <v>3</v>
@@ -11243,10 +11718,10 @@
         <v>43</v>
       </c>
       <c r="B229" t="s">
-        <v>336</v>
+        <v>283</v>
       </c>
       <c r="C229" t="s">
-        <v>337</v>
+        <v>284</v>
       </c>
       <c r="D229" t="s">
         <v>3</v>
@@ -11260,10 +11735,10 @@
         <v>43</v>
       </c>
       <c r="B230" t="s">
-        <v>489</v>
+        <v>322</v>
       </c>
       <c r="C230" t="s">
-        <v>490</v>
+        <v>323</v>
       </c>
       <c r="D230" t="s">
         <v>3</v>
@@ -11277,10 +11752,10 @@
         <v>43</v>
       </c>
       <c r="B231" t="s">
-        <v>576</v>
+        <v>336</v>
       </c>
       <c r="C231" t="s">
-        <v>577</v>
+        <v>337</v>
       </c>
       <c r="D231" t="s">
         <v>3</v>
@@ -11294,10 +11769,10 @@
         <v>43</v>
       </c>
       <c r="B232" t="s">
-        <v>587</v>
+        <v>489</v>
       </c>
       <c r="C232" t="s">
-        <v>588</v>
+        <v>490</v>
       </c>
       <c r="D232" t="s">
         <v>3</v>
@@ -11311,10 +11786,10 @@
         <v>43</v>
       </c>
       <c r="B233" t="s">
-        <v>609</v>
+        <v>576</v>
       </c>
       <c r="C233" t="s">
-        <v>610</v>
+        <v>577</v>
       </c>
       <c r="D233" t="s">
         <v>3</v>
@@ -11328,10 +11803,10 @@
         <v>43</v>
       </c>
       <c r="B234" t="s">
-        <v>618</v>
+        <v>587</v>
       </c>
       <c r="C234" t="s">
-        <v>619</v>
+        <v>588</v>
       </c>
       <c r="D234" t="s">
         <v>3</v>
@@ -11345,10 +11820,10 @@
         <v>43</v>
       </c>
       <c r="B235" t="s">
-        <v>638</v>
+        <v>609</v>
       </c>
       <c r="C235" t="s">
-        <v>639</v>
+        <v>610</v>
       </c>
       <c r="D235" t="s">
         <v>3</v>
@@ -11362,10 +11837,10 @@
         <v>43</v>
       </c>
       <c r="B236" t="s">
-        <v>668</v>
+        <v>618</v>
       </c>
       <c r="C236" t="s">
-        <v>669</v>
+        <v>619</v>
       </c>
       <c r="D236" t="s">
         <v>3</v>
@@ -11376,36 +11851,36 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>564</v>
+        <v>638</v>
       </c>
       <c r="C237" t="s">
-        <v>565</v>
+        <v>639</v>
       </c>
       <c r="D237" t="s">
         <v>3</v>
       </c>
       <c r="F237" t="s">
-        <v>566</v>
+        <v>46</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="B238" t="s">
-        <v>206</v>
+        <v>668</v>
       </c>
       <c r="C238" t="s">
-        <v>511</v>
+        <v>669</v>
       </c>
       <c r="D238" t="s">
         <v>3</v>
       </c>
       <c r="F238" t="s">
-        <v>512</v>
+        <v>46</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
@@ -11413,16 +11888,16 @@
         <v>112</v>
       </c>
       <c r="B239" t="s">
-        <v>626</v>
+        <v>564</v>
       </c>
       <c r="C239" t="s">
-        <v>627</v>
+        <v>565</v>
       </c>
       <c r="D239" t="s">
         <v>3</v>
       </c>
       <c r="F239" t="s">
-        <v>628</v>
+        <v>566</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
@@ -11430,16 +11905,16 @@
         <v>112</v>
       </c>
       <c r="B240" t="s">
-        <v>581</v>
+        <v>206</v>
       </c>
       <c r="C240" t="s">
-        <v>582</v>
+        <v>511</v>
       </c>
       <c r="D240" t="s">
         <v>3</v>
       </c>
       <c r="F240" t="s">
-        <v>583</v>
+        <v>512</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
@@ -11447,16 +11922,16 @@
         <v>112</v>
       </c>
       <c r="B241" t="s">
-        <v>180</v>
+        <v>626</v>
       </c>
       <c r="C241" t="s">
-        <v>181</v>
+        <v>627</v>
       </c>
       <c r="D241" t="s">
         <v>3</v>
       </c>
       <c r="F241" t="s">
-        <v>182</v>
+        <v>628</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
@@ -11464,16 +11939,16 @@
         <v>112</v>
       </c>
       <c r="B242" t="s">
-        <v>132</v>
+        <v>581</v>
       </c>
       <c r="C242" t="s">
-        <v>133</v>
+        <v>582</v>
       </c>
       <c r="D242" t="s">
         <v>3</v>
       </c>
       <c r="F242" t="s">
-        <v>134</v>
+        <v>583</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -11481,16 +11956,16 @@
         <v>112</v>
       </c>
       <c r="B243" t="s">
-        <v>530</v>
+        <v>180</v>
       </c>
       <c r="C243" t="s">
-        <v>531</v>
+        <v>181</v>
       </c>
       <c r="D243" t="s">
         <v>3</v>
       </c>
       <c r="F243" t="s">
-        <v>532</v>
+        <v>182</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -11498,16 +11973,16 @@
         <v>112</v>
       </c>
       <c r="B244" t="s">
-        <v>371</v>
+        <v>132</v>
       </c>
       <c r="C244" t="s">
-        <v>372</v>
+        <v>133</v>
       </c>
       <c r="D244" t="s">
         <v>3</v>
       </c>
       <c r="F244" t="s">
-        <v>373</v>
+        <v>134</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -11515,16 +11990,16 @@
         <v>112</v>
       </c>
       <c r="B245" t="s">
-        <v>656</v>
+        <v>530</v>
       </c>
       <c r="C245" t="s">
-        <v>657</v>
+        <v>531</v>
       </c>
       <c r="D245" t="s">
         <v>3</v>
       </c>
       <c r="F245" t="s">
-        <v>658</v>
+        <v>532</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -11532,16 +12007,16 @@
         <v>112</v>
       </c>
       <c r="B246" t="s">
-        <v>516</v>
+        <v>371</v>
       </c>
       <c r="C246" t="s">
-        <v>517</v>
+        <v>372</v>
       </c>
       <c r="D246" t="s">
         <v>3</v>
       </c>
       <c r="F246" t="s">
-        <v>518</v>
+        <v>373</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
@@ -11549,16 +12024,16 @@
         <v>112</v>
       </c>
       <c r="B247" t="s">
-        <v>553</v>
+        <v>656</v>
       </c>
       <c r="C247" t="s">
-        <v>554</v>
+        <v>657</v>
       </c>
       <c r="D247" t="s">
         <v>3</v>
       </c>
       <c r="F247" t="s">
-        <v>555</v>
+        <v>658</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
@@ -11566,16 +12041,16 @@
         <v>112</v>
       </c>
       <c r="B248" t="s">
-        <v>160</v>
+        <v>516</v>
       </c>
       <c r="C248" t="s">
-        <v>161</v>
+        <v>517</v>
       </c>
       <c r="D248" t="s">
         <v>3</v>
       </c>
       <c r="F248" t="s">
-        <v>162</v>
+        <v>518</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
@@ -11583,16 +12058,16 @@
         <v>112</v>
       </c>
       <c r="B249" t="s">
-        <v>457</v>
+        <v>553</v>
       </c>
       <c r="C249" t="s">
-        <v>458</v>
+        <v>554</v>
       </c>
       <c r="D249" t="s">
         <v>3</v>
       </c>
       <c r="F249" t="s">
-        <v>162</v>
+        <v>555</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -11600,56 +12075,50 @@
         <v>112</v>
       </c>
       <c r="B250" t="s">
-        <v>345</v>
+        <v>160</v>
       </c>
       <c r="C250" t="s">
-        <v>346</v>
+        <v>161</v>
       </c>
       <c r="D250" t="s">
         <v>3</v>
       </c>
       <c r="F250" t="s">
-        <v>347</v>
+        <v>162</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>694</v>
+        <v>112</v>
       </c>
       <c r="B251" t="s">
-        <v>67</v>
+        <v>457</v>
       </c>
       <c r="C251" t="s">
-        <v>68</v>
+        <v>458</v>
       </c>
       <c r="D251" t="s">
-        <v>725</v>
-      </c>
-      <c r="E251" t="s">
-        <v>801</v>
+        <v>3</v>
       </c>
       <c r="F251" t="s">
-        <v>752</v>
+        <v>162</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>694</v>
+        <v>112</v>
       </c>
       <c r="B252" t="s">
-        <v>67</v>
+        <v>345</v>
       </c>
       <c r="C252" t="s">
-        <v>110</v>
+        <v>346</v>
       </c>
       <c r="D252" t="s">
-        <v>725</v>
-      </c>
-      <c r="E252" t="s">
-        <v>801</v>
+        <v>3</v>
       </c>
       <c r="F252" t="s">
-        <v>752</v>
+        <v>347</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
@@ -11657,10 +12126,10 @@
         <v>694</v>
       </c>
       <c r="B253" t="s">
-        <v>206</v>
+        <v>67</v>
       </c>
       <c r="C253" t="s">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="D253" t="s">
         <v>725</v>
@@ -11669,7 +12138,7 @@
         <v>801</v>
       </c>
       <c r="F253" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
@@ -11677,10 +12146,10 @@
         <v>694</v>
       </c>
       <c r="B254" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C254" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="D254" t="s">
         <v>725</v>
@@ -11689,7 +12158,7 @@
         <v>801</v>
       </c>
       <c r="F254" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
@@ -11697,10 +12166,10 @@
         <v>694</v>
       </c>
       <c r="B255" t="s">
-        <v>61</v>
+        <v>206</v>
       </c>
       <c r="C255" t="s">
-        <v>485</v>
+        <v>136</v>
       </c>
       <c r="D255" t="s">
         <v>725</v>
@@ -11709,7 +12178,7 @@
         <v>801</v>
       </c>
       <c r="F255" t="s">
-        <v>724</v>
+        <v>761</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
@@ -11717,10 +12186,10 @@
         <v>694</v>
       </c>
       <c r="B256" t="s">
-        <v>757</v>
+        <v>61</v>
       </c>
       <c r="C256" t="s">
-        <v>232</v>
+        <v>62</v>
       </c>
       <c r="D256" t="s">
         <v>725</v>
@@ -11729,7 +12198,7 @@
         <v>801</v>
       </c>
       <c r="F256" t="s">
-        <v>756</v>
+        <v>724</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
@@ -11737,22 +12206,19 @@
         <v>694</v>
       </c>
       <c r="B257" t="s">
-        <v>693</v>
+        <v>61</v>
       </c>
       <c r="C257" t="s">
-        <v>780</v>
+        <v>485</v>
       </c>
       <c r="D257" t="s">
-        <v>691</v>
+        <v>725</v>
       </c>
       <c r="E257" t="s">
-        <v>784</v>
+        <v>801</v>
       </c>
       <c r="F257" t="s">
-        <v>690</v>
-      </c>
-      <c r="G257" t="s">
-        <v>785</v>
+        <v>724</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
@@ -11760,22 +12226,19 @@
         <v>694</v>
       </c>
       <c r="B258" t="s">
-        <v>693</v>
+        <v>757</v>
       </c>
       <c r="C258" t="s">
-        <v>770</v>
+        <v>232</v>
       </c>
       <c r="D258" t="s">
-        <v>691</v>
+        <v>725</v>
       </c>
       <c r="E258" t="s">
-        <v>784</v>
+        <v>801</v>
       </c>
       <c r="F258" t="s">
-        <v>690</v>
-      </c>
-      <c r="G258" t="s">
-        <v>785</v>
+        <v>756</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
@@ -11786,7 +12249,7 @@
         <v>693</v>
       </c>
       <c r="C259" t="s">
-        <v>768</v>
+        <v>780</v>
       </c>
       <c r="D259" t="s">
         <v>691</v>
@@ -11809,7 +12272,7 @@
         <v>693</v>
       </c>
       <c r="C260" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="D260" t="s">
         <v>691</v>
@@ -11832,7 +12295,7 @@
         <v>693</v>
       </c>
       <c r="C261" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="D261" t="s">
         <v>691</v>
@@ -11855,7 +12318,7 @@
         <v>693</v>
       </c>
       <c r="C262" t="s">
-        <v>743</v>
+        <v>766</v>
       </c>
       <c r="D262" t="s">
         <v>691</v>
@@ -11878,7 +12341,7 @@
         <v>693</v>
       </c>
       <c r="C263" t="s">
-        <v>742</v>
+        <v>765</v>
       </c>
       <c r="D263" t="s">
         <v>691</v>
@@ -11901,7 +12364,7 @@
         <v>693</v>
       </c>
       <c r="C264" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="D264" t="s">
         <v>691</v>
@@ -11924,7 +12387,7 @@
         <v>693</v>
       </c>
       <c r="C265" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="D265" t="s">
         <v>691</v>
@@ -11947,7 +12410,7 @@
         <v>693</v>
       </c>
       <c r="C266" t="s">
-        <v>729</v>
+        <v>741</v>
       </c>
       <c r="D266" t="s">
         <v>691</v>
@@ -11970,7 +12433,7 @@
         <v>693</v>
       </c>
       <c r="C267" t="s">
-        <v>718</v>
+        <v>740</v>
       </c>
       <c r="D267" t="s">
         <v>691</v>
@@ -11993,7 +12456,7 @@
         <v>693</v>
       </c>
       <c r="C268" t="s">
-        <v>711</v>
+        <v>729</v>
       </c>
       <c r="D268" t="s">
         <v>691</v>
@@ -12016,7 +12479,7 @@
         <v>693</v>
       </c>
       <c r="C269" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="D269" t="s">
         <v>691</v>
@@ -12039,7 +12502,7 @@
         <v>693</v>
       </c>
       <c r="C270" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="D270" t="s">
         <v>691</v>
@@ -12062,7 +12525,7 @@
         <v>693</v>
       </c>
       <c r="C271" t="s">
-        <v>699</v>
+        <v>710</v>
       </c>
       <c r="D271" t="s">
         <v>691</v>
@@ -12085,7 +12548,7 @@
         <v>693</v>
       </c>
       <c r="C272" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="D272" t="s">
         <v>691</v>
@@ -12108,7 +12571,7 @@
         <v>693</v>
       </c>
       <c r="C273" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="D273" t="s">
         <v>691</v>
@@ -12123,19 +12586,67 @@
         <v>785</v>
       </c>
     </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>694</v>
+      </c>
+      <c r="B274" t="s">
+        <v>693</v>
+      </c>
+      <c r="C274" t="s">
+        <v>697</v>
+      </c>
+      <c r="D274" t="s">
+        <v>691</v>
+      </c>
+      <c r="E274" t="s">
+        <v>784</v>
+      </c>
+      <c r="F274" t="s">
+        <v>690</v>
+      </c>
+      <c r="G274" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>694</v>
+      </c>
+      <c r="B275" t="s">
+        <v>693</v>
+      </c>
+      <c r="C275" t="s">
+        <v>692</v>
+      </c>
+      <c r="D275" t="s">
+        <v>691</v>
+      </c>
+      <c r="E275" t="s">
+        <v>784</v>
+      </c>
+      <c r="F275" t="s">
+        <v>690</v>
+      </c>
+      <c r="G275" t="s">
+        <v>785</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:G273">
-    <sortCondition ref="D1:D273"/>
-    <sortCondition ref="F1:F273"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:G275">
+    <sortCondition ref="D1:D275"/>
+    <sortCondition ref="F1:F275"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="G11" r:id="rId1" xr:uid="{324CCDBD-78E8-4671-B92A-A5D7025482CC}"/>
-    <hyperlink ref="G43" r:id="rId2" display="https://eclipse.googlesource.com/jdt/eclipse.jdt.ui/+/JDK_1_5/org.eclipse.jdt.ui/plugin.xml" xr:uid="{D2528B84-5A45-4AD6-87B2-DEA115BCAF51}"/>
+    <hyperlink ref="G43" r:id="rId2" xr:uid="{D2528B84-5A45-4AD6-87B2-DEA115BCAF51}"/>
     <hyperlink ref="G54" r:id="rId3" xr:uid="{3AFFDD34-2E93-46F9-9006-B008401C73FD}"/>
     <hyperlink ref="G47" r:id="rId4" xr:uid="{B03428B6-6C0E-4205-B08F-9807E7DDE8BA}"/>
+    <hyperlink ref="G109" r:id="rId5" xr:uid="{87FE636A-B642-40F2-8B3B-B00E9631A66D}"/>
+    <hyperlink ref="G93" r:id="rId6" xr:uid="{6EEA3AA8-3351-47C7-B9BB-89CD6CCA85C3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -12143,8 +12654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D27377-37E6-4931-B40A-C19F46C7E782}">
   <dimension ref="A1:E293"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A273" workbookViewId="0">
+      <selection activeCell="E293" sqref="E293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
